--- a/data/Tamm_1972.xlsx
+++ b/data/Tamm_1972.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raymondtremblay/Dropbox/GitHub_Dropbox_Drive/GitHub/Diagnostico_Poblacional/Diagnostico_Poblacional/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rlt/Library/CloudStorage/Dropbox/GitHub_Dropbox_Drive/GitHub/Diagnostico_Poblacional/Diagnostico_Poblacional/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017C8600-DA4F-4443-A08F-BDBB1DF5F531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9237D6B6-D886-914A-A212-4DE9B0D4C8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9200" yWindow="500" windowWidth="25820" windowHeight="17740" xr2:uid="{683BF98F-3781-6D48-8A22-790AF0A17F30}"/>
+    <workbookView xWindow="2620" yWindow="760" windowWidth="25820" windowHeight="17740" activeTab="1" xr2:uid="{683BF98F-3781-6D48-8A22-790AF0A17F30}"/>
   </bookViews>
   <sheets>
     <sheet name="D_incarnata" sheetId="1" r:id="rId1"/>
+    <sheet name="D_incarnata_by_column" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="11">
   <si>
     <t>Plant_Num</t>
   </si>
@@ -51,6 +52,24 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>F_1944</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>next_stage</t>
+  </si>
+  <si>
+    <t>Fertility</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -422,10 +441,1000 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A14177-2BE1-824D-B246-DDF32B31F093}">
-  <dimension ref="A1:X36"/>
+  <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O2" workbookViewId="0">
-      <selection activeCell="U37" sqref="U37"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1944</v>
+      </c>
+      <c r="C1">
+        <v>1945</v>
+      </c>
+      <c r="D1">
+        <v>1946</v>
+      </c>
+      <c r="E1">
+        <v>1947</v>
+      </c>
+      <c r="F1">
+        <v>1948</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>1949</v>
+      </c>
+      <c r="I1">
+        <v>1950</v>
+      </c>
+      <c r="J1">
+        <v>1951</v>
+      </c>
+      <c r="K1">
+        <v>1952</v>
+      </c>
+      <c r="L1">
+        <v>1953</v>
+      </c>
+      <c r="M1">
+        <v>1954</v>
+      </c>
+      <c r="N1">
+        <v>1955</v>
+      </c>
+      <c r="O1">
+        <v>1956</v>
+      </c>
+      <c r="P1">
+        <v>1957</v>
+      </c>
+      <c r="Q1">
+        <v>1958</v>
+      </c>
+      <c r="R1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1">
+        <v>1965</v>
+      </c>
+      <c r="T1">
+        <v>1966</v>
+      </c>
+      <c r="U1">
+        <v>1967</v>
+      </c>
+      <c r="V1">
+        <v>1968</v>
+      </c>
+      <c r="W1">
+        <v>1969</v>
+      </c>
+      <c r="X1">
+        <v>1970</v>
+      </c>
+      <c r="Y1">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>2</v>
+      </c>
+      <c r="R11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="K12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>4</v>
+      </c>
+      <c r="O13" t="s">
+        <v>4</v>
+      </c>
+      <c r="P13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R13" t="s">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s">
+        <v>2</v>
+      </c>
+      <c r="T13" t="s">
+        <v>4</v>
+      </c>
+      <c r="U13" t="s">
+        <v>2</v>
+      </c>
+      <c r="V13" t="s">
+        <v>2</v>
+      </c>
+      <c r="W13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="L15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M16" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" t="s">
+        <v>2</v>
+      </c>
+      <c r="M18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M19" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="H22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="J23" t="s">
+        <v>2</v>
+      </c>
+      <c r="K23" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" t="s">
+        <v>2</v>
+      </c>
+      <c r="M23" t="s">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>2</v>
+      </c>
+      <c r="O23" t="s">
+        <v>4</v>
+      </c>
+      <c r="P23" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>2</v>
+      </c>
+      <c r="R23" t="s">
+        <v>4</v>
+      </c>
+      <c r="S23" t="s">
+        <v>2</v>
+      </c>
+      <c r="T23" t="s">
+        <v>4</v>
+      </c>
+      <c r="U23" t="s">
+        <v>2</v>
+      </c>
+      <c r="V23" t="s">
+        <v>2</v>
+      </c>
+      <c r="W23" t="s">
+        <v>2</v>
+      </c>
+      <c r="X23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="J24" t="s">
+        <v>2</v>
+      </c>
+      <c r="K24" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="J25" t="s">
+        <v>2</v>
+      </c>
+      <c r="K25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="M26" t="s">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>2</v>
+      </c>
+      <c r="O26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="T27" t="s">
+        <v>2</v>
+      </c>
+      <c r="U27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="U28" t="s">
+        <v>2</v>
+      </c>
+      <c r="V28" t="s">
+        <v>2</v>
+      </c>
+      <c r="W28" t="s">
+        <v>2</v>
+      </c>
+      <c r="X28" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="U29" t="s">
+        <v>2</v>
+      </c>
+      <c r="V29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="U30" t="s">
+        <v>2</v>
+      </c>
+      <c r="V30" t="s">
+        <v>2</v>
+      </c>
+      <c r="W30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="U31" t="s">
+        <v>2</v>
+      </c>
+      <c r="V31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="U32" t="s">
+        <v>2</v>
+      </c>
+      <c r="V32" t="s">
+        <v>2</v>
+      </c>
+      <c r="W32" t="s">
+        <v>2</v>
+      </c>
+      <c r="X32" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="U33" t="s">
+        <v>2</v>
+      </c>
+      <c r="V33" t="s">
+        <v>2</v>
+      </c>
+      <c r="W33" t="s">
+        <v>2</v>
+      </c>
+      <c r="X33" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="U34" t="s">
+        <v>2</v>
+      </c>
+      <c r="V34" t="s">
+        <v>2</v>
+      </c>
+      <c r="W34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="U35" t="s">
+        <v>2</v>
+      </c>
+      <c r="V35" t="s">
+        <v>2</v>
+      </c>
+      <c r="W35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="U36" t="s">
+        <v>2</v>
+      </c>
+      <c r="V36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{635748B1-994B-D94C-8977-AFB9AECB23F3}">
+  <dimension ref="A1:X596"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -434,20 +1443,20 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1944</v>
-      </c>
-      <c r="C1">
-        <v>1945</v>
-      </c>
-      <c r="D1">
-        <v>1946</v>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
       </c>
       <c r="E1">
-        <v>1947</v>
-      </c>
-      <c r="F1">
         <v>1948</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
       </c>
       <c r="G1">
         <v>1949</v>
@@ -508,11 +1517,20 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>1944</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>2</v>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
@@ -543,11 +1561,20 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>1944</v>
+      </c>
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>2</v>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
       </c>
       <c r="G3" t="s">
         <v>2</v>
@@ -578,11 +1605,20 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>1944</v>
+      </c>
+      <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
-        <v>2</v>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
       </c>
       <c r="G4" t="s">
         <v>2</v>
@@ -604,11 +1640,20 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>1944</v>
+      </c>
+      <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
-        <v>2</v>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
       </c>
       <c r="G5" t="s">
         <v>2</v>
@@ -630,11 +1675,20 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2</v>
+      <c r="B6">
+        <v>1944</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
       </c>
       <c r="G6" t="s">
         <v>2</v>
@@ -653,11 +1707,20 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="B7">
+        <v>1944</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
         <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
@@ -679,11 +1742,20 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>2</v>
+      <c r="B8">
+        <v>1944</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
       </c>
       <c r="G8" t="s">
         <v>1</v>
@@ -705,11 +1777,20 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>2</v>
+      <c r="B9">
+        <v>1944</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
       </c>
       <c r="G9" t="s">
         <v>2</v>
@@ -743,11 +1824,20 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>2</v>
+      <c r="B10">
+        <v>1944</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
       </c>
       <c r="G10" t="s">
         <v>2</v>
@@ -778,11 +1868,20 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>2</v>
+      <c r="B11">
+        <v>1944</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
       </c>
       <c r="G11" t="s">
         <v>2</v>
@@ -819,22 +1918,40 @@
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12">
+        <v>1944</v>
+      </c>
       <c r="J12" t="s">
         <v>2</v>
       </c>
+      <c r="K12" t="s">
+        <v>4</v>
+      </c>
       <c r="L12" t="s">
         <v>2</v>
+      </c>
+      <c r="M12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>2</v>
+      <c r="B13">
+        <v>1944</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
       </c>
       <c r="G13" t="s">
         <v>2</v>
@@ -854,14 +1971,26 @@
       <c r="L13" t="s">
         <v>2</v>
       </c>
+      <c r="M13" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>4</v>
+      </c>
       <c r="O13" t="s">
         <v>2</v>
       </c>
       <c r="P13" t="s">
         <v>2</v>
       </c>
+      <c r="Q13" t="s">
+        <v>4</v>
+      </c>
       <c r="R13" t="s">
         <v>2</v>
+      </c>
+      <c r="S13" t="s">
+        <v>4</v>
       </c>
       <c r="T13" t="s">
         <v>2</v>
@@ -877,11 +2006,20 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>2</v>
+      <c r="B14">
+        <v>1944</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
       </c>
       <c r="G14" t="s">
         <v>2</v>
@@ -909,6 +2047,9 @@
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15">
+        <v>1944</v>
+      </c>
       <c r="K15" t="s">
         <v>2</v>
       </c>
@@ -920,11 +2061,20 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" t="s">
-        <v>2</v>
+      <c r="B16">
+        <v>1944</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
       </c>
       <c r="G16" t="s">
         <v>2</v>
@@ -952,11 +2102,20 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" t="s">
-        <v>2</v>
+      <c r="B17">
+        <v>1944</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
       </c>
       <c r="G17" t="s">
         <v>2</v>
@@ -984,11 +2143,20 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" t="s">
-        <v>2</v>
+      <c r="B18">
+        <v>1944</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
       </c>
       <c r="G18" t="s">
         <v>2</v>
@@ -1016,11 +2184,20 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" t="s">
-        <v>2</v>
+      <c r="B19">
+        <v>1944</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
       </c>
       <c r="G19" t="s">
         <v>2</v>
@@ -1048,8 +2225,17 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>2</v>
+      <c r="B20">
+        <v>1944</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
       </c>
       <c r="G20" t="s">
         <v>2</v>
@@ -1077,10 +2263,16 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="B21">
+        <v>1944</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1088,6 +2280,9 @@
       <c r="A22">
         <v>21</v>
       </c>
+      <c r="B22">
+        <v>1944</v>
+      </c>
       <c r="G22" t="s">
         <v>2</v>
       </c>
@@ -1102,6 +2297,9 @@
       <c r="A23">
         <v>22</v>
       </c>
+      <c r="B23">
+        <v>1944</v>
+      </c>
       <c r="I23" t="s">
         <v>2</v>
       </c>
@@ -1117,14 +2315,23 @@
       <c r="M23" t="s">
         <v>2</v>
       </c>
+      <c r="N23" t="s">
+        <v>4</v>
+      </c>
       <c r="O23" t="s">
         <v>2</v>
       </c>
       <c r="P23" t="s">
         <v>2</v>
       </c>
+      <c r="Q23" t="s">
+        <v>4</v>
+      </c>
       <c r="R23" t="s">
         <v>2</v>
+      </c>
+      <c r="S23" t="s">
+        <v>4</v>
       </c>
       <c r="T23" t="s">
         <v>2</v>
@@ -1143,6 +2350,9 @@
       <c r="A24">
         <v>23</v>
       </c>
+      <c r="B24">
+        <v>1944</v>
+      </c>
       <c r="I24" t="s">
         <v>2</v>
       </c>
@@ -1157,6 +2367,9 @@
       <c r="A25">
         <v>24</v>
       </c>
+      <c r="B25">
+        <v>1944</v>
+      </c>
       <c r="I25" t="s">
         <v>2</v>
       </c>
@@ -1168,6 +2381,9 @@
       <c r="A26">
         <v>25</v>
       </c>
+      <c r="B26">
+        <v>1944</v>
+      </c>
       <c r="L26" t="s">
         <v>2</v>
       </c>
@@ -1182,6 +2398,9 @@
       <c r="A27">
         <v>26</v>
       </c>
+      <c r="B27">
+        <v>1944</v>
+      </c>
       <c r="S27" t="s">
         <v>2</v>
       </c>
@@ -1193,6 +2412,9 @@
       <c r="A28">
         <v>27</v>
       </c>
+      <c r="B28">
+        <v>1944</v>
+      </c>
       <c r="T28" t="s">
         <v>2</v>
       </c>
@@ -1213,6 +2435,9 @@
       <c r="A29">
         <v>28</v>
       </c>
+      <c r="B29">
+        <v>1944</v>
+      </c>
       <c r="T29" t="s">
         <v>2</v>
       </c>
@@ -1224,6 +2449,9 @@
       <c r="A30">
         <v>29</v>
       </c>
+      <c r="B30">
+        <v>1944</v>
+      </c>
       <c r="T30" t="s">
         <v>2</v>
       </c>
@@ -1238,6 +2466,9 @@
       <c r="A31">
         <v>30</v>
       </c>
+      <c r="B31">
+        <v>1944</v>
+      </c>
       <c r="T31" t="s">
         <v>2</v>
       </c>
@@ -1249,6 +2480,9 @@
       <c r="A32">
         <v>31</v>
       </c>
+      <c r="B32">
+        <v>1944</v>
+      </c>
       <c r="T32" t="s">
         <v>2</v>
       </c>
@@ -1269,6 +2503,9 @@
       <c r="A33">
         <v>32</v>
       </c>
+      <c r="B33">
+        <v>1944</v>
+      </c>
       <c r="T33" t="s">
         <v>2</v>
       </c>
@@ -1289,6 +2526,9 @@
       <c r="A34">
         <v>33</v>
       </c>
+      <c r="B34">
+        <v>1944</v>
+      </c>
       <c r="T34" t="s">
         <v>2</v>
       </c>
@@ -1303,6 +2543,9 @@
       <c r="A35">
         <v>34</v>
       </c>
+      <c r="B35">
+        <v>1944</v>
+      </c>
       <c r="T35" t="s">
         <v>2</v>
       </c>
@@ -1317,11 +2560,7969 @@
       <c r="A36">
         <v>35</v>
       </c>
+      <c r="B36">
+        <v>1944</v>
+      </c>
       <c r="T36" t="s">
         <v>2</v>
       </c>
       <c r="U36" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>1948</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <f>IF(C37="V",0,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>1948</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ref="F38:F101" si="0">IF(C38="V",0,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>1948</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>1948</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>1948</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <v>1948</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <v>1948</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>1948</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>1948</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>10</v>
+      </c>
+      <c r="B46">
+        <v>1948</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>11</v>
+      </c>
+      <c r="B47">
+        <v>1948</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>12</v>
+      </c>
+      <c r="B48">
+        <v>1948</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>13</v>
+      </c>
+      <c r="B49">
+        <v>1948</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>14</v>
+      </c>
+      <c r="B50">
+        <v>1948</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>15</v>
+      </c>
+      <c r="B51">
+        <v>1948</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>16</v>
+      </c>
+      <c r="B52">
+        <v>1948</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>17</v>
+      </c>
+      <c r="B53">
+        <v>1948</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>18</v>
+      </c>
+      <c r="B54">
+        <v>1948</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>19</v>
+      </c>
+      <c r="B55">
+        <v>1948</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>20</v>
+      </c>
+      <c r="B56">
+        <v>1948</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>21</v>
+      </c>
+      <c r="B57">
+        <v>1948</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>22</v>
+      </c>
+      <c r="B58">
+        <v>1948</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>23</v>
+      </c>
+      <c r="B59">
+        <v>1948</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>24</v>
+      </c>
+      <c r="B60">
+        <v>1948</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>25</v>
+      </c>
+      <c r="B61">
+        <v>1948</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>26</v>
+      </c>
+      <c r="B62">
+        <v>1948</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>27</v>
+      </c>
+      <c r="B63">
+        <v>1948</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>28</v>
+      </c>
+      <c r="B64">
+        <v>1948</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>29</v>
+      </c>
+      <c r="B65">
+        <v>1948</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>30</v>
+      </c>
+      <c r="B66">
+        <v>1948</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>31</v>
+      </c>
+      <c r="B67">
+        <v>1948</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>32</v>
+      </c>
+      <c r="B68">
+        <v>1948</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>33</v>
+      </c>
+      <c r="B69">
+        <v>1948</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>34</v>
+      </c>
+      <c r="B70">
+        <v>1948</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>35</v>
+      </c>
+      <c r="B71">
+        <v>1948</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>1949</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73">
+        <v>1949</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>3</v>
+      </c>
+      <c r="B74">
+        <v>1949</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>4</v>
+      </c>
+      <c r="B75">
+        <v>1949</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>5</v>
+      </c>
+      <c r="B76">
+        <v>1949</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>6</v>
+      </c>
+      <c r="B77">
+        <v>1949</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>7</v>
+      </c>
+      <c r="B78">
+        <v>1949</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>2</v>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>8</v>
+      </c>
+      <c r="B79">
+        <v>1949</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>9</v>
+      </c>
+      <c r="B80">
+        <v>1949</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>10</v>
+      </c>
+      <c r="B81">
+        <v>1949</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>11</v>
+      </c>
+      <c r="B82">
+        <v>1949</v>
+      </c>
+      <c r="F82" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>12</v>
+      </c>
+      <c r="B83">
+        <v>1949</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s">
+        <v>2</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>13</v>
+      </c>
+      <c r="B84">
+        <v>1949</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>14</v>
+      </c>
+      <c r="B85">
+        <v>1949</v>
+      </c>
+      <c r="F85" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>15</v>
+      </c>
+      <c r="B86">
+        <v>1949</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s">
+        <v>2</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>16</v>
+      </c>
+      <c r="B87">
+        <v>1949</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s">
+        <v>2</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>17</v>
+      </c>
+      <c r="B88">
+        <v>1949</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>2</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>18</v>
+      </c>
+      <c r="B89">
+        <v>1949</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>2</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>19</v>
+      </c>
+      <c r="B90">
+        <v>1949</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" t="s">
+        <v>2</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>20</v>
+      </c>
+      <c r="B91">
+        <v>1949</v>
+      </c>
+      <c r="F91" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>21</v>
+      </c>
+      <c r="B92">
+        <v>1949</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" t="s">
+        <v>2</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>22</v>
+      </c>
+      <c r="B93">
+        <v>1949</v>
+      </c>
+      <c r="F93" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>23</v>
+      </c>
+      <c r="B94">
+        <v>1949</v>
+      </c>
+      <c r="F94" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>24</v>
+      </c>
+      <c r="B95">
+        <v>1949</v>
+      </c>
+      <c r="F95" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>25</v>
+      </c>
+      <c r="B96">
+        <v>1949</v>
+      </c>
+      <c r="F96" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>26</v>
+      </c>
+      <c r="B97">
+        <v>1949</v>
+      </c>
+      <c r="F97" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>27</v>
+      </c>
+      <c r="B98">
+        <v>1949</v>
+      </c>
+      <c r="F98" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>28</v>
+      </c>
+      <c r="B99">
+        <v>1949</v>
+      </c>
+      <c r="F99" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>29</v>
+      </c>
+      <c r="B100">
+        <v>1949</v>
+      </c>
+      <c r="F100" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>30</v>
+      </c>
+      <c r="B101">
+        <v>1949</v>
+      </c>
+      <c r="F101" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>31</v>
+      </c>
+      <c r="B102">
+        <v>1949</v>
+      </c>
+      <c r="F102" t="str">
+        <f t="shared" ref="F102:F165" si="1">IF(C102="V",0,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>32</v>
+      </c>
+      <c r="B103">
+        <v>1949</v>
+      </c>
+      <c r="F103" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>33</v>
+      </c>
+      <c r="B104">
+        <v>1949</v>
+      </c>
+      <c r="F104" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>34</v>
+      </c>
+      <c r="B105">
+        <v>1949</v>
+      </c>
+      <c r="F105" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>35</v>
+      </c>
+      <c r="B106">
+        <v>1949</v>
+      </c>
+      <c r="F106" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107">
+        <v>1950</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s">
+        <v>2</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>2</v>
+      </c>
+      <c r="B108">
+        <v>1950</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" t="s">
+        <v>2</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>3</v>
+      </c>
+      <c r="B109">
+        <v>1950</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" t="s">
+        <v>2</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>4</v>
+      </c>
+      <c r="B110">
+        <v>1950</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" t="s">
+        <v>2</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>5</v>
+      </c>
+      <c r="B111">
+        <v>1950</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>6</v>
+      </c>
+      <c r="B112">
+        <v>1950</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112" t="s">
+        <v>2</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>7</v>
+      </c>
+      <c r="B113">
+        <v>1950</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" t="s">
+        <v>2</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>8</v>
+      </c>
+      <c r="B114">
+        <v>1950</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" t="s">
+        <v>2</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>9</v>
+      </c>
+      <c r="B115">
+        <v>1950</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" t="s">
+        <v>2</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>10</v>
+      </c>
+      <c r="B116">
+        <v>1950</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2</v>
+      </c>
+      <c r="D116" t="s">
+        <v>2</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>11</v>
+      </c>
+      <c r="B117">
+        <v>1950</v>
+      </c>
+      <c r="F117" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>12</v>
+      </c>
+      <c r="B118">
+        <v>1950</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2</v>
+      </c>
+      <c r="D118" t="s">
+        <v>2</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>13</v>
+      </c>
+      <c r="B119">
+        <v>1950</v>
+      </c>
+      <c r="C119" t="s">
+        <v>2</v>
+      </c>
+      <c r="D119" t="s">
+        <v>2</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>14</v>
+      </c>
+      <c r="B120">
+        <v>1950</v>
+      </c>
+      <c r="F120" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>15</v>
+      </c>
+      <c r="B121">
+        <v>1950</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121" t="s">
+        <v>2</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>16</v>
+      </c>
+      <c r="B122">
+        <v>1950</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122" t="s">
+        <v>2</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>17</v>
+      </c>
+      <c r="B123">
+        <v>1950</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123" t="s">
+        <v>2</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>18</v>
+      </c>
+      <c r="B124">
+        <v>1950</v>
+      </c>
+      <c r="C124" t="s">
+        <v>2</v>
+      </c>
+      <c r="D124" t="s">
+        <v>2</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>19</v>
+      </c>
+      <c r="B125">
+        <v>1950</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2</v>
+      </c>
+      <c r="D125" t="s">
+        <v>2</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>20</v>
+      </c>
+      <c r="B126">
+        <v>1950</v>
+      </c>
+      <c r="F126" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>21</v>
+      </c>
+      <c r="B127">
+        <v>1950</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2</v>
+      </c>
+      <c r="D127" t="s">
+        <v>4</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>22</v>
+      </c>
+      <c r="B128">
+        <v>1950</v>
+      </c>
+      <c r="D128" t="s">
+        <v>2</v>
+      </c>
+      <c r="F128" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>23</v>
+      </c>
+      <c r="B129">
+        <v>1950</v>
+      </c>
+      <c r="D129" t="s">
+        <v>2</v>
+      </c>
+      <c r="F129" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>24</v>
+      </c>
+      <c r="B130">
+        <v>1950</v>
+      </c>
+      <c r="D130" t="s">
+        <v>2</v>
+      </c>
+      <c r="F130" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>25</v>
+      </c>
+      <c r="B131">
+        <v>1950</v>
+      </c>
+      <c r="F131" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>26</v>
+      </c>
+      <c r="B132">
+        <v>1950</v>
+      </c>
+      <c r="F132" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>27</v>
+      </c>
+      <c r="B133">
+        <v>1950</v>
+      </c>
+      <c r="F133" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>28</v>
+      </c>
+      <c r="B134">
+        <v>1950</v>
+      </c>
+      <c r="F134" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>29</v>
+      </c>
+      <c r="B135">
+        <v>1950</v>
+      </c>
+      <c r="F135" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>30</v>
+      </c>
+      <c r="B136">
+        <v>1950</v>
+      </c>
+      <c r="F136" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>31</v>
+      </c>
+      <c r="B137">
+        <v>1950</v>
+      </c>
+      <c r="F137" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>32</v>
+      </c>
+      <c r="B138">
+        <v>1950</v>
+      </c>
+      <c r="F138" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>33</v>
+      </c>
+      <c r="B139">
+        <v>1950</v>
+      </c>
+      <c r="F139" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>34</v>
+      </c>
+      <c r="B140">
+        <v>1950</v>
+      </c>
+      <c r="F140" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>35</v>
+      </c>
+      <c r="B141">
+        <v>1950</v>
+      </c>
+      <c r="F141" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>1</v>
+      </c>
+      <c r="B142">
+        <v>1951</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2</v>
+      </c>
+      <c r="D142" t="s">
+        <v>2</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>2</v>
+      </c>
+      <c r="B143">
+        <v>1951</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2</v>
+      </c>
+      <c r="D143" t="s">
+        <v>2</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>3</v>
+      </c>
+      <c r="B144">
+        <v>1951</v>
+      </c>
+      <c r="C144" t="s">
+        <v>2</v>
+      </c>
+      <c r="D144" t="s">
+        <v>2</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>4</v>
+      </c>
+      <c r="B145">
+        <v>1951</v>
+      </c>
+      <c r="C145" t="s">
+        <v>2</v>
+      </c>
+      <c r="D145" t="s">
+        <v>2</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>5</v>
+      </c>
+      <c r="B146">
+        <v>1951</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1</v>
+      </c>
+      <c r="D146" t="s">
+        <v>4</v>
+      </c>
+      <c r="F146" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>6</v>
+      </c>
+      <c r="B147">
+        <v>1951</v>
+      </c>
+      <c r="C147" t="s">
+        <v>2</v>
+      </c>
+      <c r="D147" t="s">
+        <v>2</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>7</v>
+      </c>
+      <c r="B148">
+        <v>1951</v>
+      </c>
+      <c r="C148" t="s">
+        <v>2</v>
+      </c>
+      <c r="D148" t="s">
+        <v>2</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>8</v>
+      </c>
+      <c r="B149">
+        <v>1951</v>
+      </c>
+      <c r="C149" t="s">
+        <v>2</v>
+      </c>
+      <c r="D149" t="s">
+        <v>2</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>9</v>
+      </c>
+      <c r="B150">
+        <v>1951</v>
+      </c>
+      <c r="C150" t="s">
+        <v>2</v>
+      </c>
+      <c r="D150" t="s">
+        <v>2</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>10</v>
+      </c>
+      <c r="B151">
+        <v>1951</v>
+      </c>
+      <c r="C151" t="s">
+        <v>2</v>
+      </c>
+      <c r="D151" t="s">
+        <v>2</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>11</v>
+      </c>
+      <c r="B152">
+        <v>1951</v>
+      </c>
+      <c r="D152" t="s">
+        <v>2</v>
+      </c>
+      <c r="F152" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>12</v>
+      </c>
+      <c r="B153">
+        <v>1951</v>
+      </c>
+      <c r="C153" t="s">
+        <v>2</v>
+      </c>
+      <c r="D153" t="s">
+        <v>2</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>13</v>
+      </c>
+      <c r="B154">
+        <v>1951</v>
+      </c>
+      <c r="C154" t="s">
+        <v>2</v>
+      </c>
+      <c r="D154" t="s">
+        <v>2</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>14</v>
+      </c>
+      <c r="B155">
+        <v>1951</v>
+      </c>
+      <c r="F155" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>15</v>
+      </c>
+      <c r="B156">
+        <v>1951</v>
+      </c>
+      <c r="C156" t="s">
+        <v>2</v>
+      </c>
+      <c r="D156" t="s">
+        <v>2</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>16</v>
+      </c>
+      <c r="B157">
+        <v>1951</v>
+      </c>
+      <c r="C157" t="s">
+        <v>2</v>
+      </c>
+      <c r="D157" t="s">
+        <v>2</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>17</v>
+      </c>
+      <c r="B158">
+        <v>1951</v>
+      </c>
+      <c r="C158" t="s">
+        <v>2</v>
+      </c>
+      <c r="D158" t="s">
+        <v>2</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>18</v>
+      </c>
+      <c r="B159">
+        <v>1951</v>
+      </c>
+      <c r="C159" t="s">
+        <v>2</v>
+      </c>
+      <c r="D159" t="s">
+        <v>2</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>19</v>
+      </c>
+      <c r="B160">
+        <v>1951</v>
+      </c>
+      <c r="C160" t="s">
+        <v>2</v>
+      </c>
+      <c r="D160" t="s">
+        <v>2</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>20</v>
+      </c>
+      <c r="B161">
+        <v>1951</v>
+      </c>
+      <c r="F161" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>21</v>
+      </c>
+      <c r="B162">
+        <v>1951</v>
+      </c>
+      <c r="C162" t="s">
+        <v>4</v>
+      </c>
+      <c r="D162" t="s">
+        <v>10</v>
+      </c>
+      <c r="F162" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>22</v>
+      </c>
+      <c r="B163">
+        <v>1951</v>
+      </c>
+      <c r="C163" t="s">
+        <v>2</v>
+      </c>
+      <c r="D163" t="s">
+        <v>2</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>23</v>
+      </c>
+      <c r="B164">
+        <v>1951</v>
+      </c>
+      <c r="C164" t="s">
+        <v>2</v>
+      </c>
+      <c r="D164" t="s">
+        <v>2</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>24</v>
+      </c>
+      <c r="B165">
+        <v>1951</v>
+      </c>
+      <c r="C165" t="s">
+        <v>2</v>
+      </c>
+      <c r="D165" t="s">
+        <v>4</v>
+      </c>
+      <c r="F165">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>25</v>
+      </c>
+      <c r="B166">
+        <v>1951</v>
+      </c>
+      <c r="F166" t="str">
+        <f t="shared" ref="F166:F229" si="2">IF(C166="V",0,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>26</v>
+      </c>
+      <c r="B167">
+        <v>1951</v>
+      </c>
+      <c r="F167" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>27</v>
+      </c>
+      <c r="B168">
+        <v>1951</v>
+      </c>
+      <c r="F168" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>28</v>
+      </c>
+      <c r="B169">
+        <v>1951</v>
+      </c>
+      <c r="F169" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>29</v>
+      </c>
+      <c r="B170">
+        <v>1951</v>
+      </c>
+      <c r="F170" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>30</v>
+      </c>
+      <c r="B171">
+        <v>1951</v>
+      </c>
+      <c r="F171" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>31</v>
+      </c>
+      <c r="B172">
+        <v>1951</v>
+      </c>
+      <c r="F172" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>32</v>
+      </c>
+      <c r="B173">
+        <v>1951</v>
+      </c>
+      <c r="F173" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>33</v>
+      </c>
+      <c r="B174">
+        <v>1951</v>
+      </c>
+      <c r="F174" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>34</v>
+      </c>
+      <c r="B175">
+        <v>1951</v>
+      </c>
+      <c r="F175" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>35</v>
+      </c>
+      <c r="B176">
+        <v>1951</v>
+      </c>
+      <c r="F176" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>1</v>
+      </c>
+      <c r="B177">
+        <v>1952</v>
+      </c>
+      <c r="C177" t="s">
+        <v>2</v>
+      </c>
+      <c r="D177" t="s">
+        <v>2</v>
+      </c>
+      <c r="F177">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>2</v>
+      </c>
+      <c r="B178">
+        <v>1952</v>
+      </c>
+      <c r="C178" t="s">
+        <v>2</v>
+      </c>
+      <c r="D178" t="s">
+        <v>2</v>
+      </c>
+      <c r="F178">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>3</v>
+      </c>
+      <c r="B179">
+        <v>1952</v>
+      </c>
+      <c r="C179" t="s">
+        <v>2</v>
+      </c>
+      <c r="D179" t="s">
+        <v>4</v>
+      </c>
+      <c r="F179">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>4</v>
+      </c>
+      <c r="B180">
+        <v>1952</v>
+      </c>
+      <c r="C180" t="s">
+        <v>2</v>
+      </c>
+      <c r="D180" t="s">
+        <v>4</v>
+      </c>
+      <c r="F180">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>5</v>
+      </c>
+      <c r="B181">
+        <v>1952</v>
+      </c>
+      <c r="C181" t="s">
+        <v>4</v>
+      </c>
+      <c r="D181" t="s">
+        <v>10</v>
+      </c>
+      <c r="F181" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>6</v>
+      </c>
+      <c r="B182">
+        <v>1952</v>
+      </c>
+      <c r="C182" t="s">
+        <v>2</v>
+      </c>
+      <c r="D182" t="s">
+        <v>4</v>
+      </c>
+      <c r="F182">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>7</v>
+      </c>
+      <c r="B183">
+        <v>1952</v>
+      </c>
+      <c r="C183" t="s">
+        <v>2</v>
+      </c>
+      <c r="D183" t="s">
+        <v>4</v>
+      </c>
+      <c r="F183">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>8</v>
+      </c>
+      <c r="B184">
+        <v>1952</v>
+      </c>
+      <c r="C184" t="s">
+        <v>2</v>
+      </c>
+      <c r="D184" t="s">
+        <v>2</v>
+      </c>
+      <c r="F184">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>9</v>
+      </c>
+      <c r="B185">
+        <v>1952</v>
+      </c>
+      <c r="C185" t="s">
+        <v>2</v>
+      </c>
+      <c r="D185" t="s">
+        <v>2</v>
+      </c>
+      <c r="F185">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>10</v>
+      </c>
+      <c r="B186">
+        <v>1952</v>
+      </c>
+      <c r="C186" t="s">
+        <v>2</v>
+      </c>
+      <c r="D186" t="s">
+        <v>2</v>
+      </c>
+      <c r="F186">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>11</v>
+      </c>
+      <c r="B187">
+        <v>1952</v>
+      </c>
+      <c r="C187" t="s">
+        <v>2</v>
+      </c>
+      <c r="D187" t="s">
+        <v>4</v>
+      </c>
+      <c r="F187">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>12</v>
+      </c>
+      <c r="B188">
+        <v>1952</v>
+      </c>
+      <c r="C188" t="s">
+        <v>2</v>
+      </c>
+      <c r="D188" t="s">
+        <v>2</v>
+      </c>
+      <c r="F188">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>13</v>
+      </c>
+      <c r="B189">
+        <v>1952</v>
+      </c>
+      <c r="C189" t="s">
+        <v>2</v>
+      </c>
+      <c r="D189" t="s">
+        <v>2</v>
+      </c>
+      <c r="F189">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>14</v>
+      </c>
+      <c r="B190">
+        <v>1952</v>
+      </c>
+      <c r="D190" t="s">
+        <v>2</v>
+      </c>
+      <c r="F190" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>15</v>
+      </c>
+      <c r="B191">
+        <v>1952</v>
+      </c>
+      <c r="C191" t="s">
+        <v>2</v>
+      </c>
+      <c r="D191" t="s">
+        <v>2</v>
+      </c>
+      <c r="F191">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>16</v>
+      </c>
+      <c r="B192">
+        <v>1952</v>
+      </c>
+      <c r="C192" t="s">
+        <v>2</v>
+      </c>
+      <c r="D192" t="s">
+        <v>2</v>
+      </c>
+      <c r="F192">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>17</v>
+      </c>
+      <c r="B193">
+        <v>1952</v>
+      </c>
+      <c r="C193" t="s">
+        <v>2</v>
+      </c>
+      <c r="D193" t="s">
+        <v>2</v>
+      </c>
+      <c r="F193">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>18</v>
+      </c>
+      <c r="B194">
+        <v>1952</v>
+      </c>
+      <c r="C194" t="s">
+        <v>2</v>
+      </c>
+      <c r="D194" t="s">
+        <v>2</v>
+      </c>
+      <c r="F194">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>19</v>
+      </c>
+      <c r="B195">
+        <v>1952</v>
+      </c>
+      <c r="C195" t="s">
+        <v>2</v>
+      </c>
+      <c r="D195" t="s">
+        <v>2</v>
+      </c>
+      <c r="F195">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>20</v>
+      </c>
+      <c r="B196">
+        <v>1952</v>
+      </c>
+      <c r="F196" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>21</v>
+      </c>
+      <c r="B197">
+        <v>1952</v>
+      </c>
+      <c r="F197" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>22</v>
+      </c>
+      <c r="B198">
+        <v>1952</v>
+      </c>
+      <c r="C198" t="s">
+        <v>2</v>
+      </c>
+      <c r="D198" t="s">
+        <v>2</v>
+      </c>
+      <c r="F198">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>23</v>
+      </c>
+      <c r="B199">
+        <v>1952</v>
+      </c>
+      <c r="C199" t="s">
+        <v>2</v>
+      </c>
+      <c r="D199" t="s">
+        <v>4</v>
+      </c>
+      <c r="F199">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>24</v>
+      </c>
+      <c r="B200">
+        <v>1952</v>
+      </c>
+      <c r="C200" t="s">
+        <v>4</v>
+      </c>
+      <c r="D200" t="s">
+        <v>10</v>
+      </c>
+      <c r="F200" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>25</v>
+      </c>
+      <c r="B201">
+        <v>1952</v>
+      </c>
+      <c r="F201" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>26</v>
+      </c>
+      <c r="B202">
+        <v>1952</v>
+      </c>
+      <c r="F202" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>27</v>
+      </c>
+      <c r="B203">
+        <v>1952</v>
+      </c>
+      <c r="F203" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>28</v>
+      </c>
+      <c r="B204">
+        <v>1952</v>
+      </c>
+      <c r="F204" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>29</v>
+      </c>
+      <c r="B205">
+        <v>1952</v>
+      </c>
+      <c r="F205" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>30</v>
+      </c>
+      <c r="B206">
+        <v>1952</v>
+      </c>
+      <c r="F206" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>31</v>
+      </c>
+      <c r="B207">
+        <v>1952</v>
+      </c>
+      <c r="F207" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>32</v>
+      </c>
+      <c r="B208">
+        <v>1952</v>
+      </c>
+      <c r="F208" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>33</v>
+      </c>
+      <c r="B209">
+        <v>1952</v>
+      </c>
+      <c r="F209" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>34</v>
+      </c>
+      <c r="B210">
+        <v>1952</v>
+      </c>
+      <c r="F210" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>35</v>
+      </c>
+      <c r="B211">
+        <v>1952</v>
+      </c>
+      <c r="F211" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>1</v>
+      </c>
+      <c r="B212">
+        <v>1953</v>
+      </c>
+      <c r="C212" t="s">
+        <v>2</v>
+      </c>
+      <c r="D212" t="s">
+        <v>2</v>
+      </c>
+      <c r="F212">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>2</v>
+      </c>
+      <c r="B213">
+        <v>1953</v>
+      </c>
+      <c r="C213" t="s">
+        <v>2</v>
+      </c>
+      <c r="D213" t="s">
+        <v>2</v>
+      </c>
+      <c r="F213">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>3</v>
+      </c>
+      <c r="B214">
+        <v>1953</v>
+      </c>
+      <c r="C214" t="s">
+        <v>4</v>
+      </c>
+      <c r="D214" t="s">
+        <v>10</v>
+      </c>
+      <c r="F214" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>4</v>
+      </c>
+      <c r="B215">
+        <v>1953</v>
+      </c>
+      <c r="C215" t="s">
+        <v>4</v>
+      </c>
+      <c r="D215" t="s">
+        <v>10</v>
+      </c>
+      <c r="F215" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>5</v>
+      </c>
+      <c r="B216">
+        <v>1953</v>
+      </c>
+      <c r="F216" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>6</v>
+      </c>
+      <c r="B217">
+        <v>1953</v>
+      </c>
+      <c r="C217" t="s">
+        <v>4</v>
+      </c>
+      <c r="D217" t="s">
+        <v>10</v>
+      </c>
+      <c r="F217" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>7</v>
+      </c>
+      <c r="B218">
+        <v>1953</v>
+      </c>
+      <c r="C218" t="s">
+        <v>4</v>
+      </c>
+      <c r="D218" t="s">
+        <v>10</v>
+      </c>
+      <c r="F218" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>8</v>
+      </c>
+      <c r="B219">
+        <v>1953</v>
+      </c>
+      <c r="C219" t="s">
+        <v>2</v>
+      </c>
+      <c r="D219" t="s">
+        <v>2</v>
+      </c>
+      <c r="F219">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>9</v>
+      </c>
+      <c r="B220">
+        <v>1953</v>
+      </c>
+      <c r="C220" t="s">
+        <v>2</v>
+      </c>
+      <c r="D220" t="s">
+        <v>2</v>
+      </c>
+      <c r="F220">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>10</v>
+      </c>
+      <c r="B221">
+        <v>1953</v>
+      </c>
+      <c r="C221" t="s">
+        <v>2</v>
+      </c>
+      <c r="D221" t="s">
+        <v>2</v>
+      </c>
+      <c r="F221">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>11</v>
+      </c>
+      <c r="B222">
+        <v>1953</v>
+      </c>
+      <c r="C222" t="s">
+        <v>4</v>
+      </c>
+      <c r="D222" t="s">
+        <v>2</v>
+      </c>
+      <c r="F222" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>12</v>
+      </c>
+      <c r="B223">
+        <v>1953</v>
+      </c>
+      <c r="C223" t="s">
+        <v>2</v>
+      </c>
+      <c r="D223" t="s">
+        <v>2</v>
+      </c>
+      <c r="F223">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>13</v>
+      </c>
+      <c r="B224">
+        <v>1953</v>
+      </c>
+      <c r="C224" t="s">
+        <v>2</v>
+      </c>
+      <c r="D224" t="s">
+        <v>2</v>
+      </c>
+      <c r="F224">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>14</v>
+      </c>
+      <c r="B225">
+        <v>1953</v>
+      </c>
+      <c r="C225" t="s">
+        <v>2</v>
+      </c>
+      <c r="D225" t="s">
+        <v>4</v>
+      </c>
+      <c r="F225">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>15</v>
+      </c>
+      <c r="B226">
+        <v>1953</v>
+      </c>
+      <c r="C226" t="s">
+        <v>2</v>
+      </c>
+      <c r="D226" t="s">
+        <v>2</v>
+      </c>
+      <c r="F226">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>16</v>
+      </c>
+      <c r="B227">
+        <v>1953</v>
+      </c>
+      <c r="C227" t="s">
+        <v>2</v>
+      </c>
+      <c r="D227" t="s">
+        <v>2</v>
+      </c>
+      <c r="F227">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>17</v>
+      </c>
+      <c r="B228">
+        <v>1953</v>
+      </c>
+      <c r="C228" t="s">
+        <v>2</v>
+      </c>
+      <c r="D228" t="s">
+        <v>2</v>
+      </c>
+      <c r="F228">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>18</v>
+      </c>
+      <c r="B229">
+        <v>1953</v>
+      </c>
+      <c r="C229" t="s">
+        <v>2</v>
+      </c>
+      <c r="D229" t="s">
+        <v>2</v>
+      </c>
+      <c r="F229">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>19</v>
+      </c>
+      <c r="B230">
+        <v>1953</v>
+      </c>
+      <c r="C230" t="s">
+        <v>2</v>
+      </c>
+      <c r="D230" t="s">
+        <v>2</v>
+      </c>
+      <c r="F230">
+        <f t="shared" ref="F230:F293" si="3">IF(C230="V",0,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>20</v>
+      </c>
+      <c r="B231">
+        <v>1953</v>
+      </c>
+      <c r="F231" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>21</v>
+      </c>
+      <c r="B232">
+        <v>1953</v>
+      </c>
+      <c r="F232" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>22</v>
+      </c>
+      <c r="B233">
+        <v>1953</v>
+      </c>
+      <c r="C233" t="s">
+        <v>2</v>
+      </c>
+      <c r="D233" t="s">
+        <v>2</v>
+      </c>
+      <c r="F233">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>23</v>
+      </c>
+      <c r="B234">
+        <v>1953</v>
+      </c>
+      <c r="C234" t="s">
+        <v>4</v>
+      </c>
+      <c r="D234" t="s">
+        <v>10</v>
+      </c>
+      <c r="F234" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>24</v>
+      </c>
+      <c r="B235">
+        <v>1953</v>
+      </c>
+      <c r="F235" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>25</v>
+      </c>
+      <c r="B236">
+        <v>1953</v>
+      </c>
+      <c r="D236" t="s">
+        <v>2</v>
+      </c>
+      <c r="F236" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>26</v>
+      </c>
+      <c r="B237">
+        <v>1953</v>
+      </c>
+      <c r="F237" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>27</v>
+      </c>
+      <c r="B238">
+        <v>1953</v>
+      </c>
+      <c r="F238" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>28</v>
+      </c>
+      <c r="B239">
+        <v>1953</v>
+      </c>
+      <c r="F239" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>29</v>
+      </c>
+      <c r="B240">
+        <v>1953</v>
+      </c>
+      <c r="F240" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>30</v>
+      </c>
+      <c r="B241">
+        <v>1953</v>
+      </c>
+      <c r="F241" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>31</v>
+      </c>
+      <c r="B242">
+        <v>1953</v>
+      </c>
+      <c r="F242" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>32</v>
+      </c>
+      <c r="B243">
+        <v>1953</v>
+      </c>
+      <c r="F243" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>33</v>
+      </c>
+      <c r="B244">
+        <v>1953</v>
+      </c>
+      <c r="F244" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>34</v>
+      </c>
+      <c r="B245">
+        <v>1953</v>
+      </c>
+      <c r="F245" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>35</v>
+      </c>
+      <c r="B246">
+        <v>1953</v>
+      </c>
+      <c r="F246" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>1</v>
+      </c>
+      <c r="B247">
+        <v>1954</v>
+      </c>
+      <c r="C247" t="s">
+        <v>2</v>
+      </c>
+      <c r="D247" t="s">
+        <v>2</v>
+      </c>
+      <c r="F247">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>2</v>
+      </c>
+      <c r="B248">
+        <v>1954</v>
+      </c>
+      <c r="C248" t="s">
+        <v>2</v>
+      </c>
+      <c r="D248" t="s">
+        <v>2</v>
+      </c>
+      <c r="F248">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>3</v>
+      </c>
+      <c r="B249">
+        <v>1954</v>
+      </c>
+      <c r="F249" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>4</v>
+      </c>
+      <c r="B250">
+        <v>1954</v>
+      </c>
+      <c r="F250" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>5</v>
+      </c>
+      <c r="B251">
+        <v>1954</v>
+      </c>
+      <c r="F251" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>6</v>
+      </c>
+      <c r="B252">
+        <v>1954</v>
+      </c>
+      <c r="F252" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>7</v>
+      </c>
+      <c r="B253">
+        <v>1954</v>
+      </c>
+      <c r="F253" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>8</v>
+      </c>
+      <c r="B254">
+        <v>1954</v>
+      </c>
+      <c r="C254" t="s">
+        <v>2</v>
+      </c>
+      <c r="D254" t="s">
+        <v>2</v>
+      </c>
+      <c r="F254">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>9</v>
+      </c>
+      <c r="B255">
+        <v>1954</v>
+      </c>
+      <c r="C255" t="s">
+        <v>2</v>
+      </c>
+      <c r="D255" t="s">
+        <v>2</v>
+      </c>
+      <c r="F255">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>10</v>
+      </c>
+      <c r="B256">
+        <v>1954</v>
+      </c>
+      <c r="C256" t="s">
+        <v>2</v>
+      </c>
+      <c r="D256" t="s">
+        <v>2</v>
+      </c>
+      <c r="F256">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>11</v>
+      </c>
+      <c r="B257">
+        <v>1954</v>
+      </c>
+      <c r="C257" t="s">
+        <v>2</v>
+      </c>
+      <c r="D257" t="s">
+        <v>4</v>
+      </c>
+      <c r="F257">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>12</v>
+      </c>
+      <c r="B258">
+        <v>1954</v>
+      </c>
+      <c r="C258" t="s">
+        <v>2</v>
+      </c>
+      <c r="D258" t="s">
+        <v>4</v>
+      </c>
+      <c r="F258">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>13</v>
+      </c>
+      <c r="B259">
+        <v>1954</v>
+      </c>
+      <c r="C259" t="s">
+        <v>2</v>
+      </c>
+      <c r="D259" t="s">
+        <v>4</v>
+      </c>
+      <c r="F259">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>14</v>
+      </c>
+      <c r="B260">
+        <v>1954</v>
+      </c>
+      <c r="C260" t="s">
+        <v>4</v>
+      </c>
+      <c r="D260" t="s">
+        <v>10</v>
+      </c>
+      <c r="F260" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>15</v>
+      </c>
+      <c r="B261">
+        <v>1954</v>
+      </c>
+      <c r="C261" t="s">
+        <v>2</v>
+      </c>
+      <c r="D261" t="s">
+        <v>4</v>
+      </c>
+      <c r="F261">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>16</v>
+      </c>
+      <c r="B262">
+        <v>1954</v>
+      </c>
+      <c r="C262" t="s">
+        <v>2</v>
+      </c>
+      <c r="D262" t="s">
+        <v>4</v>
+      </c>
+      <c r="F262">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>17</v>
+      </c>
+      <c r="B263">
+        <v>1954</v>
+      </c>
+      <c r="C263" t="s">
+        <v>2</v>
+      </c>
+      <c r="D263" t="s">
+        <v>4</v>
+      </c>
+      <c r="F263">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>18</v>
+      </c>
+      <c r="B264">
+        <v>1954</v>
+      </c>
+      <c r="C264" t="s">
+        <v>2</v>
+      </c>
+      <c r="D264" t="s">
+        <v>4</v>
+      </c>
+      <c r="F264">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>19</v>
+      </c>
+      <c r="B265">
+        <v>1954</v>
+      </c>
+      <c r="C265" t="s">
+        <v>2</v>
+      </c>
+      <c r="D265" t="s">
+        <v>4</v>
+      </c>
+      <c r="F265">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>20</v>
+      </c>
+      <c r="B266">
+        <v>1954</v>
+      </c>
+      <c r="F266" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>21</v>
+      </c>
+      <c r="B267">
+        <v>1954</v>
+      </c>
+      <c r="F267" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>22</v>
+      </c>
+      <c r="B268">
+        <v>1954</v>
+      </c>
+      <c r="C268" t="s">
+        <v>2</v>
+      </c>
+      <c r="D268" t="s">
+        <v>2</v>
+      </c>
+      <c r="F268">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>23</v>
+      </c>
+      <c r="B269">
+        <v>1954</v>
+      </c>
+      <c r="F269" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>24</v>
+      </c>
+      <c r="B270">
+        <v>1954</v>
+      </c>
+      <c r="F270" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>25</v>
+      </c>
+      <c r="B271">
+        <v>1954</v>
+      </c>
+      <c r="C271" t="s">
+        <v>2</v>
+      </c>
+      <c r="D271" t="s">
+        <v>2</v>
+      </c>
+      <c r="F271">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>26</v>
+      </c>
+      <c r="B272">
+        <v>1954</v>
+      </c>
+      <c r="F272" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>27</v>
+      </c>
+      <c r="B273">
+        <v>1954</v>
+      </c>
+      <c r="F273" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>28</v>
+      </c>
+      <c r="B274">
+        <v>1954</v>
+      </c>
+      <c r="F274" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>29</v>
+      </c>
+      <c r="B275">
+        <v>1954</v>
+      </c>
+      <c r="F275" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>30</v>
+      </c>
+      <c r="B276">
+        <v>1954</v>
+      </c>
+      <c r="F276" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>31</v>
+      </c>
+      <c r="B277">
+        <v>1954</v>
+      </c>
+      <c r="F277" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>32</v>
+      </c>
+      <c r="B278">
+        <v>1954</v>
+      </c>
+      <c r="F278" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>33</v>
+      </c>
+      <c r="B279">
+        <v>1954</v>
+      </c>
+      <c r="F279" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>34</v>
+      </c>
+      <c r="B280">
+        <v>1954</v>
+      </c>
+      <c r="F280" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>35</v>
+      </c>
+      <c r="B281">
+        <v>1954</v>
+      </c>
+      <c r="F281" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>1</v>
+      </c>
+      <c r="B282">
+        <v>1955</v>
+      </c>
+      <c r="C282" t="s">
+        <v>2</v>
+      </c>
+      <c r="D282" t="s">
+        <v>4</v>
+      </c>
+      <c r="F282">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>2</v>
+      </c>
+      <c r="B283">
+        <v>1955</v>
+      </c>
+      <c r="C283" t="s">
+        <v>2</v>
+      </c>
+      <c r="D283" t="s">
+        <v>4</v>
+      </c>
+      <c r="F283">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>3</v>
+      </c>
+      <c r="B284">
+        <v>1955</v>
+      </c>
+      <c r="F284" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>4</v>
+      </c>
+      <c r="B285">
+        <v>1955</v>
+      </c>
+      <c r="F285" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>5</v>
+      </c>
+      <c r="B286">
+        <v>1955</v>
+      </c>
+      <c r="F286" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>6</v>
+      </c>
+      <c r="B287">
+        <v>1955</v>
+      </c>
+      <c r="F287" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>7</v>
+      </c>
+      <c r="B288">
+        <v>1955</v>
+      </c>
+      <c r="F288" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>8</v>
+      </c>
+      <c r="B289">
+        <v>1955</v>
+      </c>
+      <c r="C289" t="s">
+        <v>2</v>
+      </c>
+      <c r="D289" t="s">
+        <v>4</v>
+      </c>
+      <c r="F289">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>9</v>
+      </c>
+      <c r="B290">
+        <v>1955</v>
+      </c>
+      <c r="C290" t="s">
+        <v>2</v>
+      </c>
+      <c r="D290" t="s">
+        <v>4</v>
+      </c>
+      <c r="F290">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>10</v>
+      </c>
+      <c r="B291">
+        <v>1955</v>
+      </c>
+      <c r="C291" t="s">
+        <v>2</v>
+      </c>
+      <c r="D291" t="s">
+        <v>4</v>
+      </c>
+      <c r="F291">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>11</v>
+      </c>
+      <c r="B292">
+        <v>1955</v>
+      </c>
+      <c r="C292" t="s">
+        <v>4</v>
+      </c>
+      <c r="D292" t="s">
+        <v>10</v>
+      </c>
+      <c r="F292" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>12</v>
+      </c>
+      <c r="B293">
+        <v>1955</v>
+      </c>
+      <c r="C293" t="s">
+        <v>4</v>
+      </c>
+      <c r="D293" t="s">
+        <v>4</v>
+      </c>
+      <c r="F293" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>13</v>
+      </c>
+      <c r="B294">
+        <v>1955</v>
+      </c>
+      <c r="C294" t="s">
+        <v>4</v>
+      </c>
+      <c r="D294" t="s">
+        <v>10</v>
+      </c>
+      <c r="F294" t="str">
+        <f t="shared" ref="F294:F357" si="4">IF(C294="V",0,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>14</v>
+      </c>
+      <c r="B295">
+        <v>1955</v>
+      </c>
+      <c r="F295" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>15</v>
+      </c>
+      <c r="B296">
+        <v>1955</v>
+      </c>
+      <c r="C296" t="s">
+        <v>4</v>
+      </c>
+      <c r="D296" t="s">
+        <v>10</v>
+      </c>
+      <c r="F296" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>16</v>
+      </c>
+      <c r="B297">
+        <v>1955</v>
+      </c>
+      <c r="C297" t="s">
+        <v>4</v>
+      </c>
+      <c r="D297" t="s">
+        <v>10</v>
+      </c>
+      <c r="F297" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>17</v>
+      </c>
+      <c r="B298">
+        <v>1955</v>
+      </c>
+      <c r="C298" t="s">
+        <v>4</v>
+      </c>
+      <c r="D298" t="s">
+        <v>10</v>
+      </c>
+      <c r="F298" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>18</v>
+      </c>
+      <c r="B299">
+        <v>1955</v>
+      </c>
+      <c r="C299" t="s">
+        <v>4</v>
+      </c>
+      <c r="D299" t="s">
+        <v>10</v>
+      </c>
+      <c r="F299" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>19</v>
+      </c>
+      <c r="B300">
+        <v>1955</v>
+      </c>
+      <c r="C300" t="s">
+        <v>4</v>
+      </c>
+      <c r="D300" t="s">
+        <v>10</v>
+      </c>
+      <c r="F300" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>20</v>
+      </c>
+      <c r="B301">
+        <v>1955</v>
+      </c>
+      <c r="F301" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>21</v>
+      </c>
+      <c r="B302">
+        <v>1955</v>
+      </c>
+      <c r="F302" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>22</v>
+      </c>
+      <c r="B303">
+        <v>1955</v>
+      </c>
+      <c r="C303" t="s">
+        <v>2</v>
+      </c>
+      <c r="D303" t="s">
+        <v>4</v>
+      </c>
+      <c r="F303">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>23</v>
+      </c>
+      <c r="B304">
+        <v>1955</v>
+      </c>
+      <c r="F304" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>24</v>
+      </c>
+      <c r="B305">
+        <v>1955</v>
+      </c>
+      <c r="F305" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>25</v>
+      </c>
+      <c r="B306">
+        <v>1955</v>
+      </c>
+      <c r="C306" t="s">
+        <v>2</v>
+      </c>
+      <c r="D306" t="s">
+        <v>4</v>
+      </c>
+      <c r="F306">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>26</v>
+      </c>
+      <c r="B307">
+        <v>1955</v>
+      </c>
+      <c r="F307" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>27</v>
+      </c>
+      <c r="B308">
+        <v>1955</v>
+      </c>
+      <c r="F308" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>28</v>
+      </c>
+      <c r="B309">
+        <v>1955</v>
+      </c>
+      <c r="F309" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>29</v>
+      </c>
+      <c r="B310">
+        <v>1955</v>
+      </c>
+      <c r="F310" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>30</v>
+      </c>
+      <c r="B311">
+        <v>1955</v>
+      </c>
+      <c r="F311" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>31</v>
+      </c>
+      <c r="B312">
+        <v>1955</v>
+      </c>
+      <c r="F312" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>32</v>
+      </c>
+      <c r="B313">
+        <v>1955</v>
+      </c>
+      <c r="F313" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>33</v>
+      </c>
+      <c r="B314">
+        <v>1955</v>
+      </c>
+      <c r="F314" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>34</v>
+      </c>
+      <c r="B315">
+        <v>1955</v>
+      </c>
+      <c r="F315" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>35</v>
+      </c>
+      <c r="B316">
+        <v>1955</v>
+      </c>
+      <c r="F316" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>1</v>
+      </c>
+      <c r="B317">
+        <v>1956</v>
+      </c>
+      <c r="C317" t="s">
+        <v>4</v>
+      </c>
+      <c r="D317" t="s">
+        <v>10</v>
+      </c>
+      <c r="F317" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>2</v>
+      </c>
+      <c r="B318">
+        <v>1956</v>
+      </c>
+      <c r="C318" t="s">
+        <v>4</v>
+      </c>
+      <c r="D318" t="s">
+        <v>10</v>
+      </c>
+      <c r="F318" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>3</v>
+      </c>
+      <c r="B319">
+        <v>1956</v>
+      </c>
+      <c r="F319" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>4</v>
+      </c>
+      <c r="B320">
+        <v>1956</v>
+      </c>
+      <c r="F320" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>5</v>
+      </c>
+      <c r="B321">
+        <v>1956</v>
+      </c>
+      <c r="F321" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>6</v>
+      </c>
+      <c r="B322">
+        <v>1956</v>
+      </c>
+      <c r="F322" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>7</v>
+      </c>
+      <c r="B323">
+        <v>1956</v>
+      </c>
+      <c r="F323" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>8</v>
+      </c>
+      <c r="B324">
+        <v>1956</v>
+      </c>
+      <c r="D324" t="s">
+        <v>2</v>
+      </c>
+      <c r="F324" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>9</v>
+      </c>
+      <c r="B325">
+        <v>1956</v>
+      </c>
+      <c r="C325" t="s">
+        <v>4</v>
+      </c>
+      <c r="D325" t="s">
+        <v>10</v>
+      </c>
+      <c r="F325" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>10</v>
+      </c>
+      <c r="B326">
+        <v>1956</v>
+      </c>
+      <c r="D326" t="s">
+        <v>2</v>
+      </c>
+      <c r="F326" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>11</v>
+      </c>
+      <c r="B327">
+        <v>1956</v>
+      </c>
+      <c r="F327" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>12</v>
+      </c>
+      <c r="B328">
+        <v>1956</v>
+      </c>
+      <c r="C328" t="s">
+        <v>4</v>
+      </c>
+      <c r="D328" t="s">
+        <v>2</v>
+      </c>
+      <c r="F328" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>13</v>
+      </c>
+      <c r="B329">
+        <v>1956</v>
+      </c>
+      <c r="F329" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>14</v>
+      </c>
+      <c r="B330">
+        <v>1956</v>
+      </c>
+      <c r="F330" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>15</v>
+      </c>
+      <c r="B331">
+        <v>1956</v>
+      </c>
+      <c r="F331" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>16</v>
+      </c>
+      <c r="B332">
+        <v>1956</v>
+      </c>
+      <c r="F332" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>17</v>
+      </c>
+      <c r="B333">
+        <v>1956</v>
+      </c>
+      <c r="F333" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>18</v>
+      </c>
+      <c r="B334">
+        <v>1956</v>
+      </c>
+      <c r="F334" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>19</v>
+      </c>
+      <c r="B335">
+        <v>1956</v>
+      </c>
+      <c r="F335" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>20</v>
+      </c>
+      <c r="B336">
+        <v>1956</v>
+      </c>
+      <c r="F336" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>21</v>
+      </c>
+      <c r="B337">
+        <v>1956</v>
+      </c>
+      <c r="F337" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>22</v>
+      </c>
+      <c r="B338">
+        <v>1956</v>
+      </c>
+      <c r="C338" t="s">
+        <v>4</v>
+      </c>
+      <c r="D338" t="s">
+        <v>2</v>
+      </c>
+      <c r="F338" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>23</v>
+      </c>
+      <c r="B339">
+        <v>1956</v>
+      </c>
+      <c r="F339" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>24</v>
+      </c>
+      <c r="B340">
+        <v>1956</v>
+      </c>
+      <c r="F340" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>25</v>
+      </c>
+      <c r="B341">
+        <v>1956</v>
+      </c>
+      <c r="C341" t="s">
+        <v>4</v>
+      </c>
+      <c r="D341" t="s">
+        <v>10</v>
+      </c>
+      <c r="F341" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>26</v>
+      </c>
+      <c r="B342">
+        <v>1956</v>
+      </c>
+      <c r="F342" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>27</v>
+      </c>
+      <c r="B343">
+        <v>1956</v>
+      </c>
+      <c r="F343" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>28</v>
+      </c>
+      <c r="B344">
+        <v>1956</v>
+      </c>
+      <c r="F344" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>29</v>
+      </c>
+      <c r="B345">
+        <v>1956</v>
+      </c>
+      <c r="F345" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>30</v>
+      </c>
+      <c r="B346">
+        <v>1956</v>
+      </c>
+      <c r="F346" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>31</v>
+      </c>
+      <c r="B347">
+        <v>1956</v>
+      </c>
+      <c r="F347" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>32</v>
+      </c>
+      <c r="B348">
+        <v>1956</v>
+      </c>
+      <c r="F348" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>33</v>
+      </c>
+      <c r="B349">
+        <v>1956</v>
+      </c>
+      <c r="F349" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>34</v>
+      </c>
+      <c r="B350">
+        <v>1956</v>
+      </c>
+      <c r="F350" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>35</v>
+      </c>
+      <c r="B351">
+        <v>1956</v>
+      </c>
+      <c r="F351" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>1</v>
+      </c>
+      <c r="B352">
+        <v>1957</v>
+      </c>
+      <c r="F352" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>2</v>
+      </c>
+      <c r="B353">
+        <v>1957</v>
+      </c>
+      <c r="F353" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>3</v>
+      </c>
+      <c r="B354">
+        <v>1957</v>
+      </c>
+      <c r="F354" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>4</v>
+      </c>
+      <c r="B355">
+        <v>1957</v>
+      </c>
+      <c r="F355" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>5</v>
+      </c>
+      <c r="B356">
+        <v>1957</v>
+      </c>
+      <c r="F356" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>6</v>
+      </c>
+      <c r="B357">
+        <v>1957</v>
+      </c>
+      <c r="F357" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>7</v>
+      </c>
+      <c r="B358">
+        <v>1957</v>
+      </c>
+      <c r="F358" t="str">
+        <f t="shared" ref="F358:F421" si="5">IF(C358="V",0,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>8</v>
+      </c>
+      <c r="B359">
+        <v>1957</v>
+      </c>
+      <c r="C359" t="s">
+        <v>2</v>
+      </c>
+      <c r="D359" t="s">
+        <v>4</v>
+      </c>
+      <c r="F359">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>9</v>
+      </c>
+      <c r="B360">
+        <v>1957</v>
+      </c>
+      <c r="F360" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>10</v>
+      </c>
+      <c r="B361">
+        <v>1957</v>
+      </c>
+      <c r="C361" t="s">
+        <v>2</v>
+      </c>
+      <c r="D361" t="s">
+        <v>2</v>
+      </c>
+      <c r="F361">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>11</v>
+      </c>
+      <c r="B362">
+        <v>1957</v>
+      </c>
+      <c r="F362" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>12</v>
+      </c>
+      <c r="B363">
+        <v>1957</v>
+      </c>
+      <c r="C363" t="s">
+        <v>2</v>
+      </c>
+      <c r="D363" t="s">
+        <v>2</v>
+      </c>
+      <c r="F363">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>13</v>
+      </c>
+      <c r="B364">
+        <v>1957</v>
+      </c>
+      <c r="F364" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>14</v>
+      </c>
+      <c r="B365">
+        <v>1957</v>
+      </c>
+      <c r="F365" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>15</v>
+      </c>
+      <c r="B366">
+        <v>1957</v>
+      </c>
+      <c r="F366" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>16</v>
+      </c>
+      <c r="B367">
+        <v>1957</v>
+      </c>
+      <c r="F367" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>17</v>
+      </c>
+      <c r="B368">
+        <v>1957</v>
+      </c>
+      <c r="F368" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>18</v>
+      </c>
+      <c r="B369">
+        <v>1957</v>
+      </c>
+      <c r="F369" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>19</v>
+      </c>
+      <c r="B370">
+        <v>1957</v>
+      </c>
+      <c r="F370" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>20</v>
+      </c>
+      <c r="B371">
+        <v>1957</v>
+      </c>
+      <c r="F371" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>21</v>
+      </c>
+      <c r="B372">
+        <v>1957</v>
+      </c>
+      <c r="F372" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>22</v>
+      </c>
+      <c r="B373">
+        <v>1957</v>
+      </c>
+      <c r="C373" t="s">
+        <v>2</v>
+      </c>
+      <c r="D373" t="s">
+        <v>2</v>
+      </c>
+      <c r="F373">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>23</v>
+      </c>
+      <c r="B374">
+        <v>1957</v>
+      </c>
+      <c r="F374" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>24</v>
+      </c>
+      <c r="B375">
+        <v>1957</v>
+      </c>
+      <c r="F375" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>25</v>
+      </c>
+      <c r="B376">
+        <v>1957</v>
+      </c>
+      <c r="F376" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>26</v>
+      </c>
+      <c r="B377">
+        <v>1957</v>
+      </c>
+      <c r="F377" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>27</v>
+      </c>
+      <c r="B378">
+        <v>1957</v>
+      </c>
+      <c r="F378" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>28</v>
+      </c>
+      <c r="B379">
+        <v>1957</v>
+      </c>
+      <c r="F379" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>29</v>
+      </c>
+      <c r="B380">
+        <v>1957</v>
+      </c>
+      <c r="F380" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>30</v>
+      </c>
+      <c r="B381">
+        <v>1957</v>
+      </c>
+      <c r="F381" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>31</v>
+      </c>
+      <c r="B382">
+        <v>1957</v>
+      </c>
+      <c r="F382" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>32</v>
+      </c>
+      <c r="B383">
+        <v>1957</v>
+      </c>
+      <c r="F383" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>33</v>
+      </c>
+      <c r="B384">
+        <v>1957</v>
+      </c>
+      <c r="F384" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>34</v>
+      </c>
+      <c r="B385">
+        <v>1957</v>
+      </c>
+      <c r="F385" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <v>35</v>
+      </c>
+      <c r="B386">
+        <v>1957</v>
+      </c>
+      <c r="F386" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>1</v>
+      </c>
+      <c r="B387">
+        <v>1965</v>
+      </c>
+      <c r="F387" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>2</v>
+      </c>
+      <c r="B388">
+        <v>1965</v>
+      </c>
+      <c r="F388" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <v>3</v>
+      </c>
+      <c r="B389">
+        <v>1965</v>
+      </c>
+      <c r="F389" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <v>4</v>
+      </c>
+      <c r="B390">
+        <v>1965</v>
+      </c>
+      <c r="F390" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <v>5</v>
+      </c>
+      <c r="B391">
+        <v>1965</v>
+      </c>
+      <c r="F391" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <v>6</v>
+      </c>
+      <c r="B392">
+        <v>1965</v>
+      </c>
+      <c r="F392" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <v>7</v>
+      </c>
+      <c r="B393">
+        <v>1965</v>
+      </c>
+      <c r="F393" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <v>8</v>
+      </c>
+      <c r="B394">
+        <v>1965</v>
+      </c>
+      <c r="F394" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <v>9</v>
+      </c>
+      <c r="B395">
+        <v>1965</v>
+      </c>
+      <c r="F395" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <v>10</v>
+      </c>
+      <c r="B396">
+        <v>1965</v>
+      </c>
+      <c r="F396" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <v>11</v>
+      </c>
+      <c r="B397">
+        <v>1965</v>
+      </c>
+      <c r="F397" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <v>12</v>
+      </c>
+      <c r="B398">
+        <v>1965</v>
+      </c>
+      <c r="C398" t="s">
+        <v>2</v>
+      </c>
+      <c r="D398" t="s">
+        <v>4</v>
+      </c>
+      <c r="F398">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A399">
+        <v>13</v>
+      </c>
+      <c r="B399">
+        <v>1965</v>
+      </c>
+      <c r="F399" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <v>14</v>
+      </c>
+      <c r="B400">
+        <v>1965</v>
+      </c>
+      <c r="F400" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A401">
+        <v>15</v>
+      </c>
+      <c r="B401">
+        <v>1965</v>
+      </c>
+      <c r="F401" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>16</v>
+      </c>
+      <c r="B402">
+        <v>1965</v>
+      </c>
+      <c r="F402" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <v>17</v>
+      </c>
+      <c r="B403">
+        <v>1965</v>
+      </c>
+      <c r="F403" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <v>18</v>
+      </c>
+      <c r="B404">
+        <v>1965</v>
+      </c>
+      <c r="F404" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A405">
+        <v>19</v>
+      </c>
+      <c r="B405">
+        <v>1965</v>
+      </c>
+      <c r="F405" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A406">
+        <v>20</v>
+      </c>
+      <c r="B406">
+        <v>1965</v>
+      </c>
+      <c r="F406" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A407">
+        <v>21</v>
+      </c>
+      <c r="B407">
+        <v>1965</v>
+      </c>
+      <c r="F407" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A408">
+        <v>22</v>
+      </c>
+      <c r="B408">
+        <v>1965</v>
+      </c>
+      <c r="C408" t="s">
+        <v>2</v>
+      </c>
+      <c r="D408" t="s">
+        <v>4</v>
+      </c>
+      <c r="F408">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A409">
+        <v>23</v>
+      </c>
+      <c r="B409">
+        <v>1965</v>
+      </c>
+      <c r="F409" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A410">
+        <v>24</v>
+      </c>
+      <c r="B410">
+        <v>1965</v>
+      </c>
+      <c r="F410" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A411">
+        <v>25</v>
+      </c>
+      <c r="B411">
+        <v>1965</v>
+      </c>
+      <c r="F411" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A412">
+        <v>26</v>
+      </c>
+      <c r="B412">
+        <v>1965</v>
+      </c>
+      <c r="D412" t="s">
+        <v>2</v>
+      </c>
+      <c r="F412" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A413">
+        <v>27</v>
+      </c>
+      <c r="B413">
+        <v>1965</v>
+      </c>
+      <c r="F413" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A414">
+        <v>28</v>
+      </c>
+      <c r="B414">
+        <v>1965</v>
+      </c>
+      <c r="F414" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A415">
+        <v>29</v>
+      </c>
+      <c r="B415">
+        <v>1965</v>
+      </c>
+      <c r="F415" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A416">
+        <v>30</v>
+      </c>
+      <c r="B416">
+        <v>1965</v>
+      </c>
+      <c r="F416" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A417">
+        <v>31</v>
+      </c>
+      <c r="B417">
+        <v>1965</v>
+      </c>
+      <c r="F417" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A418">
+        <v>32</v>
+      </c>
+      <c r="B418">
+        <v>1965</v>
+      </c>
+      <c r="F418" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A419">
+        <v>33</v>
+      </c>
+      <c r="B419">
+        <v>1965</v>
+      </c>
+      <c r="F419" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A420">
+        <v>34</v>
+      </c>
+      <c r="B420">
+        <v>1965</v>
+      </c>
+      <c r="F420" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A421">
+        <v>35</v>
+      </c>
+      <c r="B421">
+        <v>1965</v>
+      </c>
+      <c r="F421" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A422">
+        <v>1</v>
+      </c>
+      <c r="B422">
+        <v>1966</v>
+      </c>
+      <c r="F422" t="str">
+        <f t="shared" ref="F422:F485" si="6">IF(C422="V",0,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A423">
+        <v>2</v>
+      </c>
+      <c r="B423">
+        <v>1966</v>
+      </c>
+      <c r="F423" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A424">
+        <v>3</v>
+      </c>
+      <c r="B424">
+        <v>1966</v>
+      </c>
+      <c r="F424" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A425">
+        <v>4</v>
+      </c>
+      <c r="B425">
+        <v>1966</v>
+      </c>
+      <c r="F425" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A426">
+        <v>5</v>
+      </c>
+      <c r="B426">
+        <v>1966</v>
+      </c>
+      <c r="F426" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A427">
+        <v>6</v>
+      </c>
+      <c r="B427">
+        <v>1966</v>
+      </c>
+      <c r="F427" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A428">
+        <v>7</v>
+      </c>
+      <c r="B428">
+        <v>1966</v>
+      </c>
+      <c r="F428" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A429">
+        <v>8</v>
+      </c>
+      <c r="B429">
+        <v>1966</v>
+      </c>
+      <c r="F429" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A430">
+        <v>9</v>
+      </c>
+      <c r="B430">
+        <v>1966</v>
+      </c>
+      <c r="F430" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A431">
+        <v>10</v>
+      </c>
+      <c r="B431">
+        <v>1966</v>
+      </c>
+      <c r="F431" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A432">
+        <v>11</v>
+      </c>
+      <c r="B432">
+        <v>1966</v>
+      </c>
+      <c r="F432" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A433">
+        <v>12</v>
+      </c>
+      <c r="B433">
+        <v>1966</v>
+      </c>
+      <c r="C433" t="s">
+        <v>4</v>
+      </c>
+      <c r="D433" t="s">
+        <v>2</v>
+      </c>
+      <c r="F433" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A434">
+        <v>13</v>
+      </c>
+      <c r="B434">
+        <v>1966</v>
+      </c>
+      <c r="F434" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A435">
+        <v>14</v>
+      </c>
+      <c r="B435">
+        <v>1966</v>
+      </c>
+      <c r="F435" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A436">
+        <v>15</v>
+      </c>
+      <c r="B436">
+        <v>1966</v>
+      </c>
+      <c r="F436" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A437">
+        <v>16</v>
+      </c>
+      <c r="B437">
+        <v>1966</v>
+      </c>
+      <c r="F437" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A438">
+        <v>17</v>
+      </c>
+      <c r="B438">
+        <v>1966</v>
+      </c>
+      <c r="F438" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A439">
+        <v>18</v>
+      </c>
+      <c r="B439">
+        <v>1966</v>
+      </c>
+      <c r="F439" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A440">
+        <v>19</v>
+      </c>
+      <c r="B440">
+        <v>1966</v>
+      </c>
+      <c r="F440" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A441">
+        <v>20</v>
+      </c>
+      <c r="B441">
+        <v>1966</v>
+      </c>
+      <c r="F441" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A442">
+        <v>21</v>
+      </c>
+      <c r="B442">
+        <v>1966</v>
+      </c>
+      <c r="F442" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A443">
+        <v>22</v>
+      </c>
+      <c r="B443">
+        <v>1966</v>
+      </c>
+      <c r="C443" t="s">
+        <v>4</v>
+      </c>
+      <c r="D443" t="s">
+        <v>2</v>
+      </c>
+      <c r="F443" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A444">
+        <v>23</v>
+      </c>
+      <c r="B444">
+        <v>1966</v>
+      </c>
+      <c r="F444" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A445">
+        <v>24</v>
+      </c>
+      <c r="B445">
+        <v>1966</v>
+      </c>
+      <c r="F445" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A446">
+        <v>25</v>
+      </c>
+      <c r="B446">
+        <v>1966</v>
+      </c>
+      <c r="F446" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A447">
+        <v>26</v>
+      </c>
+      <c r="B447">
+        <v>1966</v>
+      </c>
+      <c r="C447" t="s">
+        <v>2</v>
+      </c>
+      <c r="D447" t="s">
+        <v>4</v>
+      </c>
+      <c r="F447">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A448">
+        <v>27</v>
+      </c>
+      <c r="B448">
+        <v>1966</v>
+      </c>
+      <c r="D448" t="s">
+        <v>2</v>
+      </c>
+      <c r="F448" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A449">
+        <v>28</v>
+      </c>
+      <c r="B449">
+        <v>1966</v>
+      </c>
+      <c r="D449" t="s">
+        <v>2</v>
+      </c>
+      <c r="F449" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A450">
+        <v>29</v>
+      </c>
+      <c r="B450">
+        <v>1966</v>
+      </c>
+      <c r="D450" t="s">
+        <v>2</v>
+      </c>
+      <c r="F450" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A451">
+        <v>30</v>
+      </c>
+      <c r="B451">
+        <v>1966</v>
+      </c>
+      <c r="D451" t="s">
+        <v>2</v>
+      </c>
+      <c r="F451" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A452">
+        <v>31</v>
+      </c>
+      <c r="B452">
+        <v>1966</v>
+      </c>
+      <c r="D452" t="s">
+        <v>2</v>
+      </c>
+      <c r="F452" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A453">
+        <v>32</v>
+      </c>
+      <c r="B453">
+        <v>1966</v>
+      </c>
+      <c r="D453" t="s">
+        <v>2</v>
+      </c>
+      <c r="F453" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A454">
+        <v>33</v>
+      </c>
+      <c r="B454">
+        <v>1966</v>
+      </c>
+      <c r="D454" t="s">
+        <v>2</v>
+      </c>
+      <c r="F454" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A455">
+        <v>34</v>
+      </c>
+      <c r="B455">
+        <v>1966</v>
+      </c>
+      <c r="D455" t="s">
+        <v>2</v>
+      </c>
+      <c r="F455" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A456">
+        <v>35</v>
+      </c>
+      <c r="B456">
+        <v>1966</v>
+      </c>
+      <c r="D456" t="s">
+        <v>2</v>
+      </c>
+      <c r="F456" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A457">
+        <v>1</v>
+      </c>
+      <c r="B457">
+        <v>1967</v>
+      </c>
+      <c r="F457" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A458">
+        <v>2</v>
+      </c>
+      <c r="B458">
+        <v>1967</v>
+      </c>
+      <c r="F458" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A459">
+        <v>3</v>
+      </c>
+      <c r="B459">
+        <v>1967</v>
+      </c>
+      <c r="F459" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A460">
+        <v>4</v>
+      </c>
+      <c r="B460">
+        <v>1967</v>
+      </c>
+      <c r="F460" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A461">
+        <v>5</v>
+      </c>
+      <c r="B461">
+        <v>1967</v>
+      </c>
+      <c r="F461" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A462">
+        <v>6</v>
+      </c>
+      <c r="B462">
+        <v>1967</v>
+      </c>
+      <c r="F462" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A463">
+        <v>7</v>
+      </c>
+      <c r="B463">
+        <v>1967</v>
+      </c>
+      <c r="F463" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A464">
+        <v>8</v>
+      </c>
+      <c r="B464">
+        <v>1967</v>
+      </c>
+      <c r="F464" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A465">
+        <v>9</v>
+      </c>
+      <c r="B465">
+        <v>1967</v>
+      </c>
+      <c r="F465" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A466">
+        <v>10</v>
+      </c>
+      <c r="B466">
+        <v>1967</v>
+      </c>
+      <c r="F466" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A467">
+        <v>11</v>
+      </c>
+      <c r="B467">
+        <v>1967</v>
+      </c>
+      <c r="F467" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A468">
+        <v>12</v>
+      </c>
+      <c r="B468">
+        <v>1967</v>
+      </c>
+      <c r="C468" t="s">
+        <v>2</v>
+      </c>
+      <c r="D468" t="s">
+        <v>2</v>
+      </c>
+      <c r="F468">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A469">
+        <v>13</v>
+      </c>
+      <c r="B469">
+        <v>1967</v>
+      </c>
+      <c r="F469" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A470">
+        <v>14</v>
+      </c>
+      <c r="B470">
+        <v>1967</v>
+      </c>
+      <c r="F470" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A471">
+        <v>15</v>
+      </c>
+      <c r="B471">
+        <v>1967</v>
+      </c>
+      <c r="F471" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A472">
+        <v>16</v>
+      </c>
+      <c r="B472">
+        <v>1967</v>
+      </c>
+      <c r="F472" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A473">
+        <v>17</v>
+      </c>
+      <c r="B473">
+        <v>1967</v>
+      </c>
+      <c r="F473" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A474">
+        <v>18</v>
+      </c>
+      <c r="B474">
+        <v>1967</v>
+      </c>
+      <c r="F474" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A475">
+        <v>19</v>
+      </c>
+      <c r="B475">
+        <v>1967</v>
+      </c>
+      <c r="F475" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A476">
+        <v>20</v>
+      </c>
+      <c r="B476">
+        <v>1967</v>
+      </c>
+      <c r="F476" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A477">
+        <v>21</v>
+      </c>
+      <c r="B477">
+        <v>1967</v>
+      </c>
+      <c r="F477" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A478">
+        <v>22</v>
+      </c>
+      <c r="B478">
+        <v>1967</v>
+      </c>
+      <c r="C478" t="s">
+        <v>2</v>
+      </c>
+      <c r="D478" t="s">
+        <v>2</v>
+      </c>
+      <c r="F478">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A479">
+        <v>23</v>
+      </c>
+      <c r="B479">
+        <v>1967</v>
+      </c>
+      <c r="F479" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A480">
+        <v>24</v>
+      </c>
+      <c r="B480">
+        <v>1967</v>
+      </c>
+      <c r="F480" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A481">
+        <v>25</v>
+      </c>
+      <c r="B481">
+        <v>1967</v>
+      </c>
+      <c r="F481" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A482">
+        <v>26</v>
+      </c>
+      <c r="B482">
+        <v>1967</v>
+      </c>
+      <c r="C482" t="s">
+        <v>4</v>
+      </c>
+      <c r="D482" t="s">
+        <v>10</v>
+      </c>
+      <c r="F482" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A483">
+        <v>27</v>
+      </c>
+      <c r="B483">
+        <v>1967</v>
+      </c>
+      <c r="C483" t="s">
+        <v>2</v>
+      </c>
+      <c r="D483" t="s">
+        <v>2</v>
+      </c>
+      <c r="F483">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A484">
+        <v>28</v>
+      </c>
+      <c r="B484">
+        <v>1967</v>
+      </c>
+      <c r="C484" t="s">
+        <v>2</v>
+      </c>
+      <c r="D484" t="s">
+        <v>4</v>
+      </c>
+      <c r="F484">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A485">
+        <v>29</v>
+      </c>
+      <c r="B485">
+        <v>1967</v>
+      </c>
+      <c r="C485" t="s">
+        <v>2</v>
+      </c>
+      <c r="D485" t="s">
+        <v>2</v>
+      </c>
+      <c r="F485">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A486">
+        <v>30</v>
+      </c>
+      <c r="B486">
+        <v>1967</v>
+      </c>
+      <c r="C486" t="s">
+        <v>2</v>
+      </c>
+      <c r="D486" t="s">
+        <v>4</v>
+      </c>
+      <c r="F486">
+        <f t="shared" ref="F486:F549" si="7">IF(C486="V",0,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A487">
+        <v>31</v>
+      </c>
+      <c r="B487">
+        <v>1967</v>
+      </c>
+      <c r="C487" t="s">
+        <v>2</v>
+      </c>
+      <c r="D487" t="s">
+        <v>2</v>
+      </c>
+      <c r="F487">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A488">
+        <v>32</v>
+      </c>
+      <c r="B488">
+        <v>1967</v>
+      </c>
+      <c r="C488" t="s">
+        <v>2</v>
+      </c>
+      <c r="D488" t="s">
+        <v>2</v>
+      </c>
+      <c r="F488">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A489">
+        <v>33</v>
+      </c>
+      <c r="B489">
+        <v>1967</v>
+      </c>
+      <c r="C489" t="s">
+        <v>2</v>
+      </c>
+      <c r="D489" t="s">
+        <v>2</v>
+      </c>
+      <c r="F489">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A490">
+        <v>34</v>
+      </c>
+      <c r="B490">
+        <v>1967</v>
+      </c>
+      <c r="C490" t="s">
+        <v>2</v>
+      </c>
+      <c r="D490" t="s">
+        <v>2</v>
+      </c>
+      <c r="F490">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A491">
+        <v>35</v>
+      </c>
+      <c r="B491">
+        <v>1967</v>
+      </c>
+      <c r="C491" t="s">
+        <v>2</v>
+      </c>
+      <c r="D491" t="s">
+        <v>4</v>
+      </c>
+      <c r="F491">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A492">
+        <v>1</v>
+      </c>
+      <c r="B492">
+        <v>1968</v>
+      </c>
+      <c r="F492" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A493">
+        <v>2</v>
+      </c>
+      <c r="B493">
+        <v>1968</v>
+      </c>
+      <c r="F493" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A494">
+        <v>3</v>
+      </c>
+      <c r="B494">
+        <v>1968</v>
+      </c>
+      <c r="F494" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A495">
+        <v>4</v>
+      </c>
+      <c r="B495">
+        <v>1968</v>
+      </c>
+      <c r="F495" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A496">
+        <v>5</v>
+      </c>
+      <c r="B496">
+        <v>1968</v>
+      </c>
+      <c r="F496" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A497">
+        <v>6</v>
+      </c>
+      <c r="B497">
+        <v>1968</v>
+      </c>
+      <c r="F497" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A498">
+        <v>7</v>
+      </c>
+      <c r="B498">
+        <v>1968</v>
+      </c>
+      <c r="F498" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A499">
+        <v>8</v>
+      </c>
+      <c r="B499">
+        <v>1968</v>
+      </c>
+      <c r="F499" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A500">
+        <v>9</v>
+      </c>
+      <c r="B500">
+        <v>1968</v>
+      </c>
+      <c r="F500" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A501">
+        <v>10</v>
+      </c>
+      <c r="B501">
+        <v>1968</v>
+      </c>
+      <c r="F501" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A502">
+        <v>11</v>
+      </c>
+      <c r="B502">
+        <v>1968</v>
+      </c>
+      <c r="F502" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A503">
+        <v>12</v>
+      </c>
+      <c r="B503">
+        <v>1968</v>
+      </c>
+      <c r="C503" t="s">
+        <v>2</v>
+      </c>
+      <c r="D503" t="s">
+        <v>4</v>
+      </c>
+      <c r="F503">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A504">
+        <v>13</v>
+      </c>
+      <c r="B504">
+        <v>1968</v>
+      </c>
+      <c r="F504" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A505">
+        <v>14</v>
+      </c>
+      <c r="B505">
+        <v>1968</v>
+      </c>
+      <c r="F505" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A506">
+        <v>15</v>
+      </c>
+      <c r="B506">
+        <v>1968</v>
+      </c>
+      <c r="F506" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A507">
+        <v>16</v>
+      </c>
+      <c r="B507">
+        <v>1968</v>
+      </c>
+      <c r="F507" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A508">
+        <v>17</v>
+      </c>
+      <c r="B508">
+        <v>1968</v>
+      </c>
+      <c r="F508" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A509">
+        <v>18</v>
+      </c>
+      <c r="B509">
+        <v>1968</v>
+      </c>
+      <c r="F509" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A510">
+        <v>19</v>
+      </c>
+      <c r="B510">
+        <v>1968</v>
+      </c>
+      <c r="F510" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A511">
+        <v>20</v>
+      </c>
+      <c r="B511">
+        <v>1968</v>
+      </c>
+      <c r="F511" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A512">
+        <v>21</v>
+      </c>
+      <c r="B512">
+        <v>1968</v>
+      </c>
+      <c r="F512" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A513">
+        <v>22</v>
+      </c>
+      <c r="B513">
+        <v>1968</v>
+      </c>
+      <c r="C513" t="s">
+        <v>2</v>
+      </c>
+      <c r="D513" t="s">
+        <v>2</v>
+      </c>
+      <c r="F513">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A514">
+        <v>23</v>
+      </c>
+      <c r="B514">
+        <v>1968</v>
+      </c>
+      <c r="F514" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A515">
+        <v>24</v>
+      </c>
+      <c r="B515">
+        <v>1968</v>
+      </c>
+      <c r="F515" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A516">
+        <v>25</v>
+      </c>
+      <c r="B516">
+        <v>1968</v>
+      </c>
+      <c r="F516" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A517">
+        <v>26</v>
+      </c>
+      <c r="B517">
+        <v>1968</v>
+      </c>
+      <c r="F517" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A518">
+        <v>27</v>
+      </c>
+      <c r="B518">
+        <v>1968</v>
+      </c>
+      <c r="C518" t="s">
+        <v>2</v>
+      </c>
+      <c r="D518" t="s">
+        <v>2</v>
+      </c>
+      <c r="F518">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A519">
+        <v>28</v>
+      </c>
+      <c r="B519">
+        <v>1968</v>
+      </c>
+      <c r="C519" t="s">
+        <v>4</v>
+      </c>
+      <c r="D519" t="s">
+        <v>10</v>
+      </c>
+      <c r="F519" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A520">
+        <v>29</v>
+      </c>
+      <c r="B520">
+        <v>1968</v>
+      </c>
+      <c r="C520" t="s">
+        <v>2</v>
+      </c>
+      <c r="D520" t="s">
+        <v>4</v>
+      </c>
+      <c r="F520">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A521">
+        <v>30</v>
+      </c>
+      <c r="B521">
+        <v>1968</v>
+      </c>
+      <c r="C521" t="s">
+        <v>4</v>
+      </c>
+      <c r="D521" t="s">
+        <v>10</v>
+      </c>
+      <c r="F521" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A522">
+        <v>31</v>
+      </c>
+      <c r="B522">
+        <v>1968</v>
+      </c>
+      <c r="C522" t="s">
+        <v>2</v>
+      </c>
+      <c r="D522" t="s">
+        <v>2</v>
+      </c>
+      <c r="F522">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A523">
+        <v>32</v>
+      </c>
+      <c r="B523">
+        <v>1968</v>
+      </c>
+      <c r="C523" t="s">
+        <v>2</v>
+      </c>
+      <c r="D523" t="s">
+        <v>2</v>
+      </c>
+      <c r="F523">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A524">
+        <v>33</v>
+      </c>
+      <c r="B524">
+        <v>1968</v>
+      </c>
+      <c r="C524" t="s">
+        <v>2</v>
+      </c>
+      <c r="D524" t="s">
+        <v>4</v>
+      </c>
+      <c r="F524">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A525">
+        <v>34</v>
+      </c>
+      <c r="B525">
+        <v>1968</v>
+      </c>
+      <c r="C525" t="s">
+        <v>2</v>
+      </c>
+      <c r="D525" t="s">
+        <v>4</v>
+      </c>
+      <c r="F525">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A526">
+        <v>35</v>
+      </c>
+      <c r="B526">
+        <v>1968</v>
+      </c>
+      <c r="C526" t="s">
+        <v>4</v>
+      </c>
+      <c r="D526" t="s">
+        <v>10</v>
+      </c>
+      <c r="F526" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A527">
+        <v>1</v>
+      </c>
+      <c r="B527">
+        <v>1969</v>
+      </c>
+      <c r="F527" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A528">
+        <v>2</v>
+      </c>
+      <c r="B528">
+        <v>1969</v>
+      </c>
+      <c r="F528" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A529">
+        <v>3</v>
+      </c>
+      <c r="B529">
+        <v>1969</v>
+      </c>
+      <c r="F529" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A530">
+        <v>4</v>
+      </c>
+      <c r="B530">
+        <v>1969</v>
+      </c>
+      <c r="F530" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A531">
+        <v>5</v>
+      </c>
+      <c r="B531">
+        <v>1969</v>
+      </c>
+      <c r="F531" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A532">
+        <v>6</v>
+      </c>
+      <c r="B532">
+        <v>1969</v>
+      </c>
+      <c r="F532" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A533">
+        <v>7</v>
+      </c>
+      <c r="B533">
+        <v>1969</v>
+      </c>
+      <c r="F533" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A534">
+        <v>8</v>
+      </c>
+      <c r="B534">
+        <v>1969</v>
+      </c>
+      <c r="F534" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A535">
+        <v>9</v>
+      </c>
+      <c r="B535">
+        <v>1969</v>
+      </c>
+      <c r="F535" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A536">
+        <v>10</v>
+      </c>
+      <c r="B536">
+        <v>1969</v>
+      </c>
+      <c r="F536" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A537">
+        <v>11</v>
+      </c>
+      <c r="B537">
+        <v>1969</v>
+      </c>
+      <c r="F537" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A538">
+        <v>12</v>
+      </c>
+      <c r="B538">
+        <v>1969</v>
+      </c>
+      <c r="C538" t="s">
+        <v>4</v>
+      </c>
+      <c r="D538" t="s">
+        <v>10</v>
+      </c>
+      <c r="F538" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A539">
+        <v>13</v>
+      </c>
+      <c r="B539">
+        <v>1969</v>
+      </c>
+      <c r="F539" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A540">
+        <v>14</v>
+      </c>
+      <c r="B540">
+        <v>1969</v>
+      </c>
+      <c r="F540" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A541">
+        <v>15</v>
+      </c>
+      <c r="B541">
+        <v>1969</v>
+      </c>
+      <c r="F541" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A542">
+        <v>16</v>
+      </c>
+      <c r="B542">
+        <v>1969</v>
+      </c>
+      <c r="F542" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A543">
+        <v>17</v>
+      </c>
+      <c r="B543">
+        <v>1969</v>
+      </c>
+      <c r="F543" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A544">
+        <v>18</v>
+      </c>
+      <c r="B544">
+        <v>1969</v>
+      </c>
+      <c r="F544" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A545">
+        <v>19</v>
+      </c>
+      <c r="B545">
+        <v>1969</v>
+      </c>
+      <c r="F545" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A546">
+        <v>20</v>
+      </c>
+      <c r="B546">
+        <v>1969</v>
+      </c>
+      <c r="F546" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A547">
+        <v>21</v>
+      </c>
+      <c r="B547">
+        <v>1969</v>
+      </c>
+      <c r="F547" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A548">
+        <v>22</v>
+      </c>
+      <c r="B548">
+        <v>1969</v>
+      </c>
+      <c r="C548" t="s">
+        <v>2</v>
+      </c>
+      <c r="D548" t="s">
+        <v>4</v>
+      </c>
+      <c r="F548">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A549">
+        <v>23</v>
+      </c>
+      <c r="B549">
+        <v>1969</v>
+      </c>
+      <c r="F549" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A550">
+        <v>24</v>
+      </c>
+      <c r="B550">
+        <v>1969</v>
+      </c>
+      <c r="F550" t="str">
+        <f t="shared" ref="F550:F596" si="8">IF(C550="V",0,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A551">
+        <v>25</v>
+      </c>
+      <c r="B551">
+        <v>1969</v>
+      </c>
+      <c r="F551" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A552">
+        <v>26</v>
+      </c>
+      <c r="B552">
+        <v>1969</v>
+      </c>
+      <c r="F552" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A553">
+        <v>27</v>
+      </c>
+      <c r="B553">
+        <v>1969</v>
+      </c>
+      <c r="C553" t="s">
+        <v>2</v>
+      </c>
+      <c r="D553" t="s">
+        <v>2</v>
+      </c>
+      <c r="F553">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A554">
+        <v>28</v>
+      </c>
+      <c r="B554">
+        <v>1969</v>
+      </c>
+      <c r="F554" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A555">
+        <v>29</v>
+      </c>
+      <c r="B555">
+        <v>1969</v>
+      </c>
+      <c r="C555" t="s">
+        <v>4</v>
+      </c>
+      <c r="D555" t="s">
+        <v>10</v>
+      </c>
+      <c r="F555" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A556">
+        <v>30</v>
+      </c>
+      <c r="B556">
+        <v>1969</v>
+      </c>
+      <c r="F556" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A557">
+        <v>31</v>
+      </c>
+      <c r="B557">
+        <v>1969</v>
+      </c>
+      <c r="C557" t="s">
+        <v>2</v>
+      </c>
+      <c r="D557" t="s">
+        <v>2</v>
+      </c>
+      <c r="F557">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A558">
+        <v>32</v>
+      </c>
+      <c r="B558">
+        <v>1969</v>
+      </c>
+      <c r="C558" t="s">
+        <v>2</v>
+      </c>
+      <c r="D558" t="s">
+        <v>2</v>
+      </c>
+      <c r="F558">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A559">
+        <v>33</v>
+      </c>
+      <c r="B559">
+        <v>1969</v>
+      </c>
+      <c r="C559" t="s">
+        <v>4</v>
+      </c>
+      <c r="D559" t="s">
+        <v>10</v>
+      </c>
+      <c r="F559" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A560">
+        <v>34</v>
+      </c>
+      <c r="B560">
+        <v>1969</v>
+      </c>
+      <c r="C560" t="s">
+        <v>4</v>
+      </c>
+      <c r="D560" t="s">
+        <v>10</v>
+      </c>
+      <c r="F560" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A561">
+        <v>35</v>
+      </c>
+      <c r="B561">
+        <v>1969</v>
+      </c>
+      <c r="F561" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A562">
+        <v>1</v>
+      </c>
+      <c r="B562">
+        <v>1970</v>
+      </c>
+      <c r="F562" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A563">
+        <v>2</v>
+      </c>
+      <c r="B563">
+        <v>1970</v>
+      </c>
+      <c r="F563" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A564">
+        <v>3</v>
+      </c>
+      <c r="B564">
+        <v>1970</v>
+      </c>
+      <c r="F564" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A565">
+        <v>4</v>
+      </c>
+      <c r="B565">
+        <v>1970</v>
+      </c>
+      <c r="F565" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A566">
+        <v>5</v>
+      </c>
+      <c r="B566">
+        <v>1970</v>
+      </c>
+      <c r="F566" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A567">
+        <v>6</v>
+      </c>
+      <c r="B567">
+        <v>1970</v>
+      </c>
+      <c r="F567" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A568">
+        <v>7</v>
+      </c>
+      <c r="B568">
+        <v>1970</v>
+      </c>
+      <c r="F568" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A569">
+        <v>8</v>
+      </c>
+      <c r="B569">
+        <v>1970</v>
+      </c>
+      <c r="F569" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A570">
+        <v>9</v>
+      </c>
+      <c r="B570">
+        <v>1970</v>
+      </c>
+      <c r="F570" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A571">
+        <v>10</v>
+      </c>
+      <c r="B571">
+        <v>1970</v>
+      </c>
+      <c r="F571" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A572">
+        <v>11</v>
+      </c>
+      <c r="B572">
+        <v>1970</v>
+      </c>
+      <c r="F572" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A573">
+        <v>12</v>
+      </c>
+      <c r="B573">
+        <v>1970</v>
+      </c>
+      <c r="F573" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A574">
+        <v>13</v>
+      </c>
+      <c r="B574">
+        <v>1970</v>
+      </c>
+      <c r="F574" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A575">
+        <v>14</v>
+      </c>
+      <c r="B575">
+        <v>1970</v>
+      </c>
+      <c r="F575" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A576">
+        <v>15</v>
+      </c>
+      <c r="B576">
+        <v>1970</v>
+      </c>
+      <c r="F576" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A577">
+        <v>16</v>
+      </c>
+      <c r="B577">
+        <v>1970</v>
+      </c>
+      <c r="F577" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A578">
+        <v>17</v>
+      </c>
+      <c r="B578">
+        <v>1970</v>
+      </c>
+      <c r="F578" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A579">
+        <v>18</v>
+      </c>
+      <c r="B579">
+        <v>1970</v>
+      </c>
+      <c r="F579" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A580">
+        <v>19</v>
+      </c>
+      <c r="B580">
+        <v>1970</v>
+      </c>
+      <c r="F580" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A581">
+        <v>20</v>
+      </c>
+      <c r="B581">
+        <v>1970</v>
+      </c>
+      <c r="F581" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A582">
+        <v>21</v>
+      </c>
+      <c r="B582">
+        <v>1970</v>
+      </c>
+      <c r="C582" t="s">
+        <v>4</v>
+      </c>
+      <c r="D582" t="s">
+        <v>10</v>
+      </c>
+      <c r="F582" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A583">
+        <v>22</v>
+      </c>
+      <c r="B583">
+        <v>1970</v>
+      </c>
+      <c r="F583" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A584">
+        <v>23</v>
+      </c>
+      <c r="B584">
+        <v>1970</v>
+      </c>
+      <c r="F584" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A585">
+        <v>24</v>
+      </c>
+      <c r="B585">
+        <v>1970</v>
+      </c>
+      <c r="F585" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A586">
+        <v>25</v>
+      </c>
+      <c r="B586">
+        <v>1970</v>
+      </c>
+      <c r="F586" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A587">
+        <v>26</v>
+      </c>
+      <c r="B587">
+        <v>1970</v>
+      </c>
+      <c r="C587" t="s">
+        <v>2</v>
+      </c>
+      <c r="D587" t="s">
+        <v>4</v>
+      </c>
+      <c r="F587">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A588">
+        <v>27</v>
+      </c>
+      <c r="B588">
+        <v>1970</v>
+      </c>
+      <c r="F588" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A589">
+        <v>28</v>
+      </c>
+      <c r="B589">
+        <v>1970</v>
+      </c>
+      <c r="F589" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A590">
+        <v>29</v>
+      </c>
+      <c r="B590">
+        <v>1970</v>
+      </c>
+      <c r="F590" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A591">
+        <v>30</v>
+      </c>
+      <c r="B591">
+        <v>1970</v>
+      </c>
+      <c r="C591" t="s">
+        <v>2</v>
+      </c>
+      <c r="D591" t="s">
+        <v>2</v>
+      </c>
+      <c r="F591">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A592">
+        <v>31</v>
+      </c>
+      <c r="B592">
+        <v>1970</v>
+      </c>
+      <c r="C592" t="s">
+        <v>2</v>
+      </c>
+      <c r="D592" t="s">
+        <v>4</v>
+      </c>
+      <c r="F592">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A593">
+        <v>32</v>
+      </c>
+      <c r="B593">
+        <v>1970</v>
+      </c>
+      <c r="F593" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A594">
+        <v>33</v>
+      </c>
+      <c r="B594">
+        <v>1970</v>
+      </c>
+      <c r="F594" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A595">
+        <v>34</v>
+      </c>
+      <c r="B595">
+        <v>1970</v>
+      </c>
+      <c r="F595" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A596">
+        <v>35</v>
+      </c>
+      <c r="B596">
+        <v>1970</v>
+      </c>
+      <c r="F596" t="str">
+        <f t="shared" si="8"/>
+        <v/>
       </c>
     </row>
   </sheetData>
